--- a/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
+++ b/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santc\workspace-github\ai-and-data-science-studies\redes neurais - implementacoes sem frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF7CE55-7773-4654-BFC0-06026B1F8C85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D11FE-B161-4B4D-854A-F7A1625142B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20610" yWindow="14100" windowWidth="25035" windowHeight="16320" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
+    <workbookView xWindow="37110" yWindow="630" windowWidth="19725" windowHeight="29925" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
-    <t>Sigmoid</t>
+    <t>Pesos</t>
   </si>
   <si>
-    <t>Soma</t>
+    <t>Fução ativação: Sigmoid</t>
   </si>
   <si>
-    <t>Saída</t>
+    <t>Função Soma</t>
   </si>
 </sst>
 </file>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -109,27 +109,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,6 +716,1437 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector de Seta Reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56636334-6F7C-4524-9771-4AB6D5FE5211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de Seta Reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714D21D8-3CF9-46E7-9A6B-D6B782B85CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="400050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de Seta Reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC580156-2034-4901-8105-AFEE16C6C1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="942975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823A315A-CDD4-4705-A6BD-292F9DBBC912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="933450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector de Seta Reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D049DD-1FD7-448D-AD54-296AC62D5FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BC4EA5-F32F-4CE0-BF02-D62EE06FB9D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2657475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector de Seta Reta 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0886D259-59DF-4412-8814-6644848DECFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="371475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector de Seta Reta 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494AE57C-724A-42BA-9CAE-35D27ABE8567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1704975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector de Seta Reta 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018AB916-03F4-40EF-A49A-B59A8CC9E408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1704975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector de Seta Reta 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BBBA08-9B5B-4E8A-8029-89B3BEB8D2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector de Seta Reta 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEC2A0D-EC7E-418B-A02A-E8DC7314FA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="400050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector de Seta Reta 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BC2F00-6190-48E0-8D75-CBA669D9F79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="942975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector de Seta Reta 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE7BB10-276B-41EA-8F0B-5D180E2D39F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="933450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector de Seta Reta 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB145A9-3E81-4D5D-AD6F-734EAA6CDFFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector de Seta Reta 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AAE54A-7D50-4590-8404-8119986AEC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2657475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector de Seta Reta 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B407112-1C43-4BCB-A2CD-83BB84392E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="371475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2329BE65-38C5-4E22-8AB5-0A9E7D77A45D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1704975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C2C4C5-973B-460F-90E2-990BAEAA25BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1704975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector de Seta Reta 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BF1159-22AC-44E4-A7EA-38002297E9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector de Seta Reta 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC48FDC-5BD4-4A4F-AF69-0F39A6C9487D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="400050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884D46C-8C7E-4FA2-B555-23102DF7DDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="942975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector de Seta Reta 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F56EB9-FED7-41AD-A80A-10D2F3987FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="933450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector de Seta Reta 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71996891-A686-4E65-B6B6-BAC51BB4726B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Conector de Seta Reta 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9526E521-07EC-4F79-B5AA-3A35AF115AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2657475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector de Seta Reta 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5C5736-EBCA-4BC3-95E1-919C86DA4395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="371475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Conector de Seta Reta 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0553B51-EEDA-4734-BDFC-B9C46E95F257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1704975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector de Seta Reta 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B7A2C5-9B1E-4153-BCD2-621A76C72DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1704975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -928,228 +2447,1440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75A1BE9-4BFA-4192-AD10-9486CA168F4E}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="9.140625" style="4"/>
-    <col min="12" max="12" width="9.140625" style="4"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="J6">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
-      <c r="J9">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
         <v>-0.89300000000000002</v>
       </c>
-      <c r="L9" s="6">
+      <c r="K9" s="1"/>
+      <c r="L9" s="17">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.38100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="17">
+        <f>1/(1+EXP(-L9))</f>
+        <v>0.40588573188433286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="J11">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F22" s="3">
+        <f>(A25*E22)+(A34*E23)</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G22" s="3">
+        <f>1/(1+EXP(-F22))</f>
+        <v>0.58855620438582912</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F29" s="3">
+        <f>(A25*E29)+(A34*E30)</f>
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="G29" s="3">
+        <f>1/(1+EXP(-F29))</f>
+        <v>0.35962318536779009</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="17">
+        <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
+        <v>-0.27419072229935881</v>
+      </c>
+      <c r="M29" s="17">
+        <f>1/(1+EXP(-L29))</f>
+        <v>0.43187856951314224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F38" s="3">
+        <f>(A25*E38)+(A34*E39)</f>
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="G38" s="3">
+        <f>1/(1+EXP(-F38))</f>
+        <v>0.38485295749078957</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F42" s="3">
+        <f>(A45*E42)+(A54*E43)</f>
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <f>1/(1+EXP(-F42))</f>
+        <v>0.39555998258063735</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F49" s="3">
+        <f>(A45*E49)+(A54*E50)</f>
+        <v>-0.74</v>
+      </c>
+      <c r="G49" s="3">
+        <f>1/(1+EXP(-F49))</f>
+        <v>0.32300414376147701</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="17">
+        <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
+        <v>-0.25421887269441767</v>
+      </c>
+      <c r="M49" s="17">
+        <f>1/(1+EXP(-L49))</f>
+        <v>0.43678536461116163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F58" s="3">
+        <f>(A45*E58)+(A54*E59)</f>
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="G58" s="3">
+        <f>1/(1+EXP(-F58))</f>
+        <v>0.27667802289494681</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F62" s="3">
+        <f>(A65*E62)+(A74*E63)</f>
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <f>1/(1+EXP(-F62))</f>
+        <v>0.48350598689212332</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="11"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="11"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="11"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F69" s="3">
+        <f>(A65*E69)+(A74*E70)</f>
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="G69" s="3">
+        <f>1/(1+EXP(-F69))</f>
+        <v>0.21131784831127748</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="17">
+        <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
+        <v>-0.16834783505262085</v>
+      </c>
+      <c r="M69" s="17">
+        <f>1/(1+EXP(-L69))</f>
+        <v>0.45801215918849292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="11"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F78" s="3">
+        <f>(A65*E78)+(A74*E79)</f>
+        <v>-1.43</v>
+      </c>
+      <c r="G78" s="3">
+        <f>1/(1+EXP(-F78))</f>
+        <v>0.19309868423321644</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="11"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="40">
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
+++ b/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santc\workspace-github\ai-and-data-science-studies\redes neurais - implementacoes sem frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D11FE-B161-4B4D-854A-F7A1625142B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE0CC3-34B9-459A-9C6F-F923D7530C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37110" yWindow="630" windowWidth="19725" windowHeight="29925" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
+    <workbookView xWindow="32085" yWindow="15" windowWidth="24675" windowHeight="29955" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>Pesos</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Função Soma</t>
+  </si>
+  <si>
+    <t>Resposta esperada</t>
+  </si>
+  <si>
+    <t>Cálculo Erro</t>
+  </si>
+  <si>
+    <t>Média abs de erro</t>
+  </si>
+  <si>
+    <t>Deri</t>
+  </si>
+  <si>
+    <t>Derivada ativação (sigmoid)</t>
+  </si>
+  <si>
+    <t>Delta Saída</t>
+  </si>
+  <si>
+    <t>derivada</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -193,19 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -217,8 +232,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75A1BE9-4BFA-4192-AD10-9486CA168F4E}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,45 +2488,48 @@
     <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="16">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="16">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -2504,122 +2537,141 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <f>G2*(1-G2)</f>
+        <v>0.25</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4*J6*M17</f>
+        <v>4.1597428325538085E-4</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="16">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="16">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -2629,154 +2681,193 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.38100000000000001</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <f>1/(1+EXP(-L9))</f>
         <v>0.40588573188433286</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <f>O9-M9</f>
+        <v>-0.40588573188433286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>G9*(1-G9)</f>
+        <v>0.25</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <v>0.14799999999999999</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G11*J9*M17</f>
+        <v>2.1850884408650299E-2</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="L13" s="9"/>
+      <c r="M13" s="16">
+        <f>M9*(1-M9)</f>
+        <v>0.24114250453705233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G17*J11*M17</f>
+        <v>-3.6214231718703738E-3</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <f>G18*(1-G18)</f>
+        <v>0.25</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="18">
+        <f>P9*M13</f>
+        <v>-9.787630194244254E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="16">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="16">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -2784,62 +2875,62 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14">
+      <c r="L18" s="9"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="16">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="16">
         <f>1/(1+EXP(-F22))</f>
         <v>0.58855620438582912</v>
       </c>
@@ -2847,122 +2938,138 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9">
+        <f>G22*(1-G22)</f>
+        <v>0.24215779866477527</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G24*J26*M37</f>
+        <v>-5.7384074201564808E-4</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="16">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.57699999999999996</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="16">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35962318536779009</v>
       </c>
@@ -2972,154 +3079,193 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="17">
+      <c r="L29" s="16">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.27419072229935881</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43187856951314224</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="O29" s="17">
+        <v>1</v>
+      </c>
+      <c r="P29" s="18">
+        <f>O29-M29</f>
+        <v>0.56812143048685781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9">
+        <f>G29*(1-G29)</f>
+        <v>0.2302943499137142</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
         <v>0.14799999999999999</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <f>G31*J29*M37</f>
+        <v>-2.8666768542975285E-2</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="L33" s="9"/>
+      <c r="M33" s="16">
+        <f>M29*(1-M29)</f>
+        <v>0.24535947070842423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="F36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <f>G37*J31*M37</f>
+        <v>4.8840430360713978E-3</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="9">
+        <f>G38*(1-G38)</f>
+        <v>0.23674115860138212</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="18">
+        <f>P29*M33</f>
+        <v>0.13939397348236826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="16">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46899999999999997</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="16">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38485295749078957</v>
       </c>
@@ -3127,65 +3273,73 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14">
+      <c r="L38" s="9"/>
+      <c r="M38" s="19"/>
+      <c r="R38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12"/>
+      <c r="R39" s="18">
+        <f>(P9+P29+P49+P69)/4</f>
+        <v>6.6859543700717589E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M40" s="9"/>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="16">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42399999999999999</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="16">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555998258063735</v>
       </c>
@@ -3193,122 +3347,138 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="F44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="9">
+        <f>G42*(1-G42)</f>
+        <v>0.23909228276144326</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="L44" s="9"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="F45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <f>G44*J46*M57</f>
+        <v>-5.6315821167638206E-4</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="K46" s="1"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="16">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="16">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32300414376147701</v>
       </c>
@@ -3318,154 +3488,193 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="17">
+      <c r="L49" s="16">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.25421887269441767</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <f>1/(1+EXP(-L49))</f>
         <v>0.43678536461116163</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="O49" s="17">
+        <v>1</v>
+      </c>
+      <c r="P49" s="18">
+        <f>O49-M49</f>
+        <v>0.56321463538883831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="9">
+        <f>G49*(1-G49)</f>
+        <v>0.2186724668743921</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
         <v>0.14799999999999999</v>
       </c>
       <c r="K51" s="1"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <f>G51*J49*M57</f>
+        <v>-2.7055870057718204E-2</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="L53" s="9"/>
+      <c r="M53" s="16">
+        <f>M49*(1-M49)</f>
+        <v>0.24600390987265619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2">
+        <f>G57*J51*M57</f>
+        <v>4.1037791531967627E-3</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="9">
+        <f>G58*(1-G58)</f>
+        <v>0.2001272945418901</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="18">
+        <f>P49*M53</f>
+        <v>0.13855300240315671</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="16">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.96099999999999997</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="16">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27667802289494681</v>
       </c>
@@ -3473,65 +3682,65 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14">
+      <c r="L58" s="9"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="15"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7" t="s">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="16">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="16">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48350598689212332</v>
       </c>
@@ -3539,122 +3748,138 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="9">
+        <f>G62*(1-G62)</f>
+        <v>0.24972794753159719</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="L64" s="9"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2">
+        <f>G64*J66*M77</f>
+        <v>4.8268036009882265E-4</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="O68" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="16">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.3169999999999999</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="16">
         <f>1/(1+EXP(-F69))</f>
         <v>0.21131784831127748</v>
       </c>
@@ -3664,154 +3889,193 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="17">
+      <c r="L69" s="16">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.16834783505262085</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <f>1/(1+EXP(-L69))</f>
         <v>0.45801215918849292</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="O69" s="17">
+        <v>0</v>
+      </c>
+      <c r="P69" s="18">
+        <f>O69-M69</f>
+        <v>-0.45801215918849292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="9">
+        <f>G69*(1-G69)</f>
+        <v>0.16666261529636942</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
         <v>0.14799999999999999</v>
       </c>
       <c r="K71" s="1"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="F72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2">
+        <f>G71*J69*M77</f>
+        <v>1.6921279939545054E-2</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="L73" s="9"/>
+      <c r="M73" s="16">
+        <f>M69*(1-M69)</f>
+        <v>0.24823702122398755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <f>G77*J71*M77</f>
+        <v>-2.6218329214778642E-3</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="F77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="9">
+        <f>G78*(1-G78)</f>
+        <v>0.15581158238061701</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="11"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="18">
+        <f>P69*M73</f>
+        <v>-0.11369557408131828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="16">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.43</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="16">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19309868423321644</v>
       </c>
@@ -3819,28 +4083,69 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="11"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14">
+      <c r="L78" s="9"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="57">
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="L69:L70"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="F78:F79"/>
@@ -3857,30 +4162,6 @@
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="L49:L50"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
+++ b/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santc\workspace-github\ai-and-data-science-studies\redes neurais - implementacoes sem frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE0CC3-34B9-459A-9C6F-F923D7530C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F6EFD1-F921-4B46-9109-8A784B3A9F20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32085" yWindow="15" windowWidth="24675" windowHeight="29955" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
+    <workbookView xWindow="57480" yWindow="8055" windowWidth="29040" windowHeight="15990" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
   <si>
     <t>Pesos</t>
   </si>
@@ -59,6 +60,96 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>taxa de aprendizagem</t>
+  </si>
+  <si>
+    <t>momento</t>
+  </si>
+  <si>
+    <t>camada oculta 1 * delta saída</t>
+  </si>
+  <si>
+    <t>camada oculta 2 * delta saída</t>
+  </si>
+  <si>
+    <t>camada oculta 3 * delta saída</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pesos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pesos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pesos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -67,9 +158,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -217,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,16 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -250,6 +339,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,6 +2280,1919 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767CC83A-788F-432D-BFFD-7079FC68B5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40440F8-41A0-4C23-9BC9-AB85D9A1BE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="400050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7382446A-D0C3-4BB0-8AC3-2C3E1B4850E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="942975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057BD1DB-DEE4-4DC9-9CCF-80C865D24B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="933450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B751EE0-0323-4DDB-B0C3-B0412DDD32BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2809C89B-6BDA-49AE-9493-FD86126F0C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2657475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEAD67E-0959-4E21-A473-45E62F43303F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="371475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5119251-165E-4482-A905-A1E8EA915BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1704975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FC7CEE-2F4C-425B-BB85-99D981FE7DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1704975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector de Seta Reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFF8C58-01D2-487E-9B68-EDCA596837AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector de Seta Reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EEDA33-39A7-44C3-95FE-BAE35319AA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="4210050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector de Seta Reta 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E967D6C-551E-4473-8AD8-3EC9B6323764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="4752975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de Seta Reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5E3B8C-3729-465B-A757-AE592E2C4A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="4743450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFE5639-14C8-4650-A9CA-613DA4230139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="5543550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de Seta Reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3C20FD-0E5D-457B-8B3D-B384E030BA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6467475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD99A9D8-1A2A-468D-B514-BA0F0444B5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="4181475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector de Seta Reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5176923F-9A4F-4200-8350-0601DB129B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="5514975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1144D041-4800-4A78-BDE9-9F02E584B47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="5514975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector de Seta Reta 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ECA259-629D-4AEA-B213-3E4167914CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector de Seta Reta 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFA15F7-B6A3-4BA9-9B2D-EA5744A7E045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="8020050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector de Seta Reta 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3807FE98-0552-492C-A468-898A1F451136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="8562975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector de Seta Reta 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878DE4C3-1B7C-4D2C-B1B4-D6078756CFF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="8553450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector de Seta Reta 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316DD132-A754-4079-A310-E478D632A6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="9353550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector de Seta Reta 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F89F4C-13CB-405F-9997-98CAB0FA0106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10277475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector de Seta Reta 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29C1814-1A4A-4FD7-8C0F-CC623B065068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="7991475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector de Seta Reta 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B594FE-34B3-4F76-B054-875FB492C31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="9324975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector de Seta Reta 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765A2324-F786-4486-B714-2B9260205D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="9324975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector de Seta Reta 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC10B7E-2AF8-4C0A-972F-B22C2029A6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector de Seta Reta 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96211A96-88F6-42ED-A515-89104A810807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="11830050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector de Seta Reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98074F55-1DA4-4F8C-93DA-CF47850E1883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="12372975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0804DC92-FBC5-4B47-95EE-EF646B2AE5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="12363450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE239CF-BE65-47D7-BEE2-C23C095FA82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="13163550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector de Seta Reta 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD2580-3137-4773-B6EA-675539803822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14087475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector de Seta Reta 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D977DB25-EB68-49EF-9DAA-FCBEBFAAF53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="11801475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector de Seta Reta 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10F9715-1877-44D9-A08D-D904DAA7E4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="13134975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648691FA-5ECC-47C6-BDA5-2E690F05178F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="13134975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2477,9 +4490,1756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75A1BE9-4BFA-4192-AD10-9486CA168F4E}">
+  <dimension ref="A1:S79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F2" s="14">
+        <f>(A5*E2)+(A14*E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <f>1/(1+EXP(-F2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <f>G2*(1-G2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4*J6*M17</f>
+        <v>4.1597428325538085E-4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F9" s="14">
+        <f>(A5*E9)+(A14*E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>1/(1+EXP(-F9))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="14">
+        <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="M9" s="14">
+        <f>1/(1+EXP(-L9))</f>
+        <v>0.40588573188433286</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f>O9-M9</f>
+        <v>-0.40588573188433286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>G9*(1-G9)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G11*J9*M17</f>
+        <v>2.1850884408650299E-2</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="14">
+        <f>M9*(1-M9)</f>
+        <v>0.24114250453705233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G17*J11*M17</f>
+        <v>-3.6214231718703738E-3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <f>G18*(1-G18)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="15">
+        <f>P9*M13</f>
+        <v>-9.787630194244254E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F18" s="14">
+        <f>(A5*E18)+(A14*E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <f>1/(1+EXP(-F18))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F22" s="14">
+        <f>(A25*E22)+(A34*E23)</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G22" s="14">
+        <f>1/(1+EXP(-F22))</f>
+        <v>0.58855620438582912</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9">
+        <f>G22*(1-G22)</f>
+        <v>0.24215779866477527</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G24*J26*M37</f>
+        <v>-5.7384074201564808E-4</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F29" s="14">
+        <f>(A25*E29)+(A34*E30)</f>
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="G29" s="14">
+        <f>1/(1+EXP(-F29))</f>
+        <v>0.35962318536779009</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="14">
+        <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
+        <v>-0.27419072229935881</v>
+      </c>
+      <c r="M29" s="14">
+        <f>1/(1+EXP(-L29))</f>
+        <v>0.43187856951314224</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1</v>
+      </c>
+      <c r="P29" s="15">
+        <f>O29-M29</f>
+        <v>0.56812143048685781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9">
+        <f>G29*(1-G29)</f>
+        <v>0.2302943499137142</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <f>G31*J29*M37</f>
+        <v>-2.8666768542975285E-2</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="14">
+        <f>M29*(1-M29)</f>
+        <v>0.24535947070842423</v>
+      </c>
+      <c r="R33" s="15">
+        <f>(P9+P29+P49+P69)/4</f>
+        <v>6.6859543700717589E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="14"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <f>G37*J31*M37</f>
+        <v>4.8840430360713978E-3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="9">
+        <f>G38*(1-G38)</f>
+        <v>0.23674115860138212</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="15">
+        <f>P29*M33</f>
+        <v>0.13939397348236826</v>
+      </c>
+      <c r="R37" s="21">
+        <f>(G2*$M$17)+(G22*$M$37)+(G42*$M$57)+(G62*$M$77)</f>
+        <v>3.2936569441453664E-2</v>
+      </c>
+      <c r="S37" s="21">
+        <f>(J26*S43) + (R37*S44)</f>
+        <v>-7.1190291675639027E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F38" s="14">
+        <f>(A25*E38)+(A34*E39)</f>
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="G38" s="14">
+        <f>1/(1+EXP(-F38))</f>
+        <v>0.38485295749078957</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="16"/>
+      <c r="R38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12"/>
+      <c r="R39" s="21">
+        <f>(G9*$M$17)+(G29*$M$37)+(G49*$M$57)+(G69*$M$77)</f>
+        <v>2.1918443623015146E-2</v>
+      </c>
+      <c r="S39" s="21">
+        <f>(J29*S43) + (R39*S44)</f>
+        <v>-0.88642446691309551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M40" s="9"/>
+      <c r="R40" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="R41" s="21">
+        <f>(G18*$M$17)+(G38*$M$37)+(G58*$M$57)+(G78*$M$77)</f>
+        <v>2.1088136992682319E-2</v>
+      </c>
+      <c r="S41" s="21">
+        <f xml:space="preserve"> (J31*S43) + (R41*S44)</f>
+        <v>0.15432644109780469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F42" s="14">
+        <f>(A45*E42)+(A54*E43)</f>
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="G42" s="14">
+        <f>1/(1+EXP(-F42))</f>
+        <v>0.39555998258063735</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="9">
+        <f>G42*(1-G42)</f>
+        <v>0.23909228276144326</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="8"/>
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <f>G44*J46*M57</f>
+        <v>-5.6315821167638206E-4</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F49" s="14">
+        <f>(A45*E49)+(A54*E50)</f>
+        <v>-0.74</v>
+      </c>
+      <c r="G49" s="14">
+        <f>1/(1+EXP(-F49))</f>
+        <v>0.32300414376147701</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="14">
+        <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
+        <v>-0.25421887269441767</v>
+      </c>
+      <c r="M49" s="14">
+        <f>1/(1+EXP(-L49))</f>
+        <v>0.43678536461116163</v>
+      </c>
+      <c r="O49" s="17">
+        <v>1</v>
+      </c>
+      <c r="P49" s="15">
+        <f>O49-M49</f>
+        <v>0.56321463538883831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="9">
+        <f>G49*(1-G49)</f>
+        <v>0.2186724668743921</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <f>G51*J49*M57</f>
+        <v>-2.7055870057718204E-2</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="14">
+        <f>M49*(1-M49)</f>
+        <v>0.24600390987265619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2">
+        <f>G57*J51*M57</f>
+        <v>4.1037791531967627E-3</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="9">
+        <f>G58*(1-G58)</f>
+        <v>0.2001272945418901</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="15">
+        <f>P49*M53</f>
+        <v>0.13855300240315671</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F58" s="14">
+        <f>(A45*E58)+(A54*E59)</f>
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="G58" s="14">
+        <f>1/(1+EXP(-F58))</f>
+        <v>0.27667802289494681</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="F62" s="14">
+        <f>(A65*E62)+(A74*E63)</f>
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="G62" s="14">
+        <f>1/(1+EXP(-F62))</f>
+        <v>0.48350598689212332</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="9">
+        <f>G62*(1-G62)</f>
+        <v>0.24972794753159719</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2">
+        <f>G64*J66*M77</f>
+        <v>4.8268036009882265E-4</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="F69" s="14">
+        <f>(A65*E69)+(A74*E70)</f>
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="G69" s="14">
+        <f>1/(1+EXP(-F69))</f>
+        <v>0.21131784831127748</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="14">
+        <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
+        <v>-0.16834783505262085</v>
+      </c>
+      <c r="M69" s="14">
+        <f>1/(1+EXP(-L69))</f>
+        <v>0.45801215918849292</v>
+      </c>
+      <c r="O69" s="17">
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f>O69-M69</f>
+        <v>-0.45801215918849292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="9">
+        <f>G69*(1-G69)</f>
+        <v>0.16666261529636942</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2">
+        <f>G71*J69*M77</f>
+        <v>1.6921279939545054E-2</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="14">
+        <f>M69*(1-M69)</f>
+        <v>0.24823702122398755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <f>G77*J71*M77</f>
+        <v>-2.6218329214778642E-3</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="9">
+        <f>G78*(1-G78)</f>
+        <v>0.15581158238061701</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="15">
+        <f>P69*M73</f>
+        <v>-0.11369557408131828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="F78" s="14">
+        <f>(A65*E78)+(A74*E79)</f>
+        <v>-1.43</v>
+      </c>
+      <c r="G78" s="14">
+        <f>1/(1+EXP(-F78))</f>
+        <v>0.19309868423321644</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="16"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M69:M70"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C46162-8F88-4BF5-AC4A-247FF224E923}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -2525,11 +6285,11 @@
       <c r="E2" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -2548,8 +6308,8 @@
       <c r="E3" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2578,7 +6338,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="18">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
@@ -2600,7 +6360,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2667,11 +6427,11 @@
       <c r="E9" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -2681,18 +6441,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.38100000000000001</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <f>1/(1+EXP(-L9))</f>
         <v>0.40588573188433286</v>
       </c>
       <c r="O9" s="17">
         <v>0</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="15">
         <f>O9-M9</f>
         <v>-0.40588573188433286</v>
       </c>
@@ -2705,16 +6465,16 @@
       <c r="E10" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2773,13 +6533,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <f>M9*(1-M9)</f>
         <v>0.24114250453705233</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="18">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
@@ -2793,10 +6553,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2850,7 +6610,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="18">
+      <c r="M17" s="15">
         <f>P9*M13</f>
         <v>-9.787630194244254E-2</v>
       </c>
@@ -2863,11 +6623,11 @@
       <c r="E18" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -2876,7 +6636,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2886,8 +6646,8 @@
       <c r="E19" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -2926,11 +6686,11 @@
       <c r="E22" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <f>1/(1+EXP(-F22))</f>
         <v>0.58855620438582912</v>
       </c>
@@ -2949,8 +6709,8 @@
       <c r="E23" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2979,7 +6739,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="18">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
@@ -3001,7 +6761,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3065,11 +6825,11 @@
       <c r="E29" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.57699999999999996</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35962318536779009</v>
       </c>
@@ -3079,18 +6839,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="16">
+      <c r="L29" s="14">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.27419072229935881</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="14">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43187856951314224</v>
       </c>
       <c r="O29" s="17">
         <v>1</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="15">
         <f>O29-M29</f>
         <v>0.56812143048685781</v>
       </c>
@@ -3103,16 +6863,16 @@
       <c r="E30" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -3171,13 +6931,13 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="16">
+      <c r="M33" s="14">
         <f>M29*(1-M29)</f>
         <v>0.24535947070842423</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="18">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
@@ -3191,10 +6951,10 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="16"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3248,7 +7008,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="18">
+      <c r="M37" s="15">
         <f>P29*M33</f>
         <v>0.13939397348236826</v>
       </c>
@@ -3261,11 +7021,11 @@
       <c r="E38" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46899999999999997</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38485295749078957</v>
       </c>
@@ -3274,7 +7034,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="16"/>
       <c r="R38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3287,22 +7047,22 @@
       <c r="E39" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="13"/>
       <c r="M39" s="12"/>
-      <c r="R39" s="18">
+      <c r="R39" s="15">
         <f>(P9+P29+P49+P69)/4</f>
         <v>6.6859543700717589E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M40" s="9"/>
-      <c r="R40" s="19"/>
+      <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -3335,11 +7095,11 @@
       <c r="E42" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="14">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42399999999999999</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="14">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555998258063735</v>
       </c>
@@ -3358,8 +7118,8 @@
       <c r="E43" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3388,7 +7148,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="18">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
@@ -3410,7 +7170,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3474,11 +7234,11 @@
       <c r="E49" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="14">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32300414376147701</v>
       </c>
@@ -3488,18 +7248,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="16">
+      <c r="L49" s="14">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.25421887269441767</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="14">
         <f>1/(1+EXP(-L49))</f>
         <v>0.43678536461116163</v>
       </c>
       <c r="O49" s="17">
         <v>1</v>
       </c>
-      <c r="P49" s="18">
+      <c r="P49" s="15">
         <f>O49-M49</f>
         <v>0.56321463538883831</v>
       </c>
@@ -3512,16 +7272,16 @@
       <c r="E50" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="19"/>
+      <c r="P50" s="16"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -3580,13 +7340,13 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="16">
+      <c r="M53" s="14">
         <f>M49*(1-M49)</f>
         <v>0.24600390987265619</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="18">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
@@ -3600,10 +7360,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="16"/>
+      <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3657,7 +7417,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="18">
+      <c r="M57" s="15">
         <f>P49*M53</f>
         <v>0.13855300240315671</v>
       </c>
@@ -3670,11 +7430,11 @@
       <c r="E58" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="14">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.96099999999999997</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="14">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27667802289494681</v>
       </c>
@@ -3683,7 +7443,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="19"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -3693,8 +7453,8 @@
       <c r="E59" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -3736,11 +7496,11 @@
       <c r="E62" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="14">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48350598689212332</v>
       </c>
@@ -3759,8 +7519,8 @@
       <c r="E63" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3789,7 +7549,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="18">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
@@ -3811,7 +7571,7 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3875,11 +7635,11 @@
       <c r="E69" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="14">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.3169999999999999</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="14">
         <f>1/(1+EXP(-F69))</f>
         <v>0.21131784831127748</v>
       </c>
@@ -3889,18 +7649,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="16">
+      <c r="L69" s="14">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.16834783505262085</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="14">
         <f>1/(1+EXP(-L69))</f>
         <v>0.45801215918849292</v>
       </c>
       <c r="O69" s="17">
         <v>0</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="15">
         <f>O69-M69</f>
         <v>-0.45801215918849292</v>
       </c>
@@ -3913,16 +7673,16 @@
       <c r="E70" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="19"/>
+      <c r="P70" s="16"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -3981,13 +7741,13 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="16">
+      <c r="M73" s="14">
         <f>M69*(1-M69)</f>
         <v>0.24823702122398755</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="18">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
@@ -4001,10 +7761,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="16"/>
+      <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4058,7 +7818,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="18">
+      <c r="M77" s="15">
         <f>P69*M73</f>
         <v>-0.11369557408131828</v>
       </c>
@@ -4071,11 +7831,11 @@
       <c r="E78" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="14">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.43</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="14">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19309868423321644</v>
       </c>
@@ -4084,7 +7844,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="19"/>
+      <c r="M78" s="16"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -4094,8 +7854,8 @@
       <c r="E79" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -4105,63 +7865,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="P69:P70"/>
     <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="L29:L30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
+++ b/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santc\workspace-github\ai-and-data-science-studies\redes neurais - implementacoes sem frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F6EFD1-F921-4B46-9109-8A784B3A9F20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F0751-EE82-4790-9889-4036E402B972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8055" windowWidth="29040" windowHeight="15990" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
+    <workbookView xWindow="19215" yWindow="1980" windowWidth="36525" windowHeight="12045" activeTab="1" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="step0" sheetId="1" r:id="rId1"/>
+    <sheet name="step1" sheetId="2" r:id="rId2"/>
+    <sheet name="step2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="19">
   <si>
     <t>Pesos</t>
   </si>
@@ -44,9 +45,6 @@
   </si>
   <si>
     <t>Média abs de erro</t>
-  </si>
-  <si>
-    <t>Deri</t>
   </si>
   <si>
     <t>Derivada ativação (sigmoid)</t>
@@ -150,15 +148,19 @@
       <t xml:space="preserve"> (3)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">cam oculta: entrada * delta </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,16 +175,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -311,11 +326,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,7 +357,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -339,19 +377,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Ênfase4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4193,6 +4231,1919 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136240A6-67E3-41FD-8573-A6CA9F5BDD3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C026200-9C72-4356-A8CF-916F2A2F5601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="400050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5ECCCA-B389-47D3-9F5F-B0C979D3F7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="942975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA060C8-4844-4462-BC38-3978DE506C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="933450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96FD9A9-8D94-4EC2-996D-92546F649AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFCEE08-9E4B-48D3-9DA7-230A5BF8F28F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2657475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C43FEF8-FEC4-4AFD-8FD7-794DAF8FF9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="371475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C81F1B5-9646-4CC7-9F4F-D34DA51664CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1704975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B686732-899A-4464-8FE2-8080CB802588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="1704975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector de Seta Reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EC814A-475F-4D3A-8D18-36AB00A8B894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector de Seta Reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2582F210-CF37-45FB-A189-2930324E39B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="4210050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector de Seta Reta 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F91E0-73E6-4842-89A9-D9E456470E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="4752975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de Seta Reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D525905-5254-4848-90E9-F37233F1BC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="4743450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEF1CD3-A8A3-4D99-91F0-F1582483B7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="5543550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de Seta Reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9708AECB-D419-4472-9F3F-B1283F714D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6467475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982606C2-B93E-49C7-B694-C672049F60F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="4181475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector de Seta Reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E08C5D9-4B33-4CEA-AB4E-8BE0806F99CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="5514975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18A43EC-7F04-40BF-ADBF-1CA00FD00B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="5514975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector de Seta Reta 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7281EE86-A63C-472F-B812-8EC25CE16005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector de Seta Reta 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D84E7BD-C0E0-4213-BAFA-E17455039875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="8020050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector de Seta Reta 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2701826-194D-4393-A2FA-9AAA1B070A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="8562975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector de Seta Reta 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1109B886-0D91-4593-B947-47DB92A44635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="8553450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector de Seta Reta 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F4B013-54AC-4EB5-A2D0-C7DEB6267344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="9353550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector de Seta Reta 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4A3B5B-13C2-4966-9583-2836F35460D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10277475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector de Seta Reta 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB15EFF-F513-42C9-A926-1C8F72360104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="7991475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector de Seta Reta 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10F7CE6-6D2A-4110-8185-352D08368695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="9324975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector de Seta Reta 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3371C9-A662-4D18-A8A3-D54892A4F06E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="9324975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector de Seta Reta 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720D609A-77FB-44EF-84A7-BC35BBB3449C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="2409825" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector de Seta Reta 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF362B7-4A9E-4781-9DE1-C04ED71CE902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="600075" y="11830050"/>
+          <a:ext cx="2409825" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector de Seta Reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E41D75-E7B3-4F22-B0CF-5BE7DB640B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="12372975"/>
+          <a:ext cx="2419350" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429BFAB6-F47E-4B7F-A04B-060438158B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="12363450"/>
+          <a:ext cx="2447925" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C927C5E3-678D-45CF-8AA2-BEADA4325569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="13163550"/>
+          <a:ext cx="2419350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector de Seta Reta 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2655CD5-070A-4A86-969D-B1781387D1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14087475"/>
+          <a:ext cx="2438400" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector de Seta Reta 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DCA8BA-A86E-40E9-BAF4-9163B33CADF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="11801475"/>
+          <a:ext cx="2447925" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector de Seta Reta 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DB067A-B8E3-40F0-9A2C-A06A16E0F92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="13134975"/>
+          <a:ext cx="2419350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC69653-32B9-4EE4-915F-22062C2AD3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="13134975"/>
+          <a:ext cx="2428875" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -4492,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75A1BE9-4BFA-4192-AD10-9486CA168F4E}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,9 +6458,10 @@
     <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4531,8 +6483,14 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4540,11 +6498,11 @@
       <c r="E2" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="18">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="18">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -4554,8 +6512,16 @@
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="23">
+        <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
+        <v>-8.0477851577559413E-5</v>
+      </c>
+      <c r="S2" s="25">
+        <f>(E2*S27) + (R2*S28)</f>
+        <v>-0.42402414335547328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4563,23 +6529,29 @@
       <c r="E3" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="9">
         <f>G2*(1-G2)</f>
@@ -4591,9 +6563,17 @@
       <c r="K4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="R4" s="22">
+        <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
+        <v>-9.1160381916825437E-5</v>
+      </c>
+      <c r="S4" s="15">
+        <f>(E3*$S$27) + (R4*$S$28)</f>
+        <v>0.35797265188542493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
@@ -4601,7 +6581,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
         <f>G4*J6*M17</f>
@@ -4614,8 +6594,8 @@
       <c r="L5" s="9"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4630,8 +6610,14 @@
       <c r="K6" s="1"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4645,8 +6631,16 @@
       <c r="K7" s="1"/>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="15">
+        <f>($A$5*$G$12)+($A$25*$G$32)+($A$45*$G$52)+($A$65*$G$72)</f>
+        <v>-1.0134590118173151E-2</v>
+      </c>
+      <c r="S7" s="15">
+        <f>(E9*$S$27) + (R7*$S$28)</f>
+        <v>-0.74304037703545189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4670,8 +6664,14 @@
       <c r="P8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4679,11 +6679,11 @@
       <c r="E9" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="18">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="18">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -4693,23 +6693,31 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="14">
+      <c r="L9" s="18">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.38100000000000001</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="18">
         <f>1/(1+EXP(-L9))</f>
         <v>0.40588573188433286</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <v>0</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="20">
         <f>O9-M9</f>
         <v>-0.40588573188433286</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="15">
+        <f>($A$14*$G$12)+($A$34*$G$32)+($A$54*$G$52)+($A$74*$G$72)</f>
+        <v>-1.1745488603430231E-2</v>
+      </c>
+      <c r="S9" s="15">
+        <f>(E10*$S$27) + (R9*$S$28)</f>
+        <v>-0.58052364658102906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4717,25 +6725,25 @@
       <c r="E10" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="9">
         <f>G9*(1-G9)</f>
@@ -4749,15 +6757,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <f>G11*J9*M17</f>
@@ -4769,10 +6783,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R12" s="15">
+        <f>($A$5*$G$16)+($A$25*$G$36)+($A$45*$G$56)+($A$65*$G$76)</f>
+        <v>1.4819462317188985E-3</v>
+      </c>
+      <c r="S12" s="15">
+        <f>(E18*$S$27) + (R12*$S$28)</f>
+        <v>-0.96055541613048434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4785,13 +6807,19 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="14">
+      <c r="M13" s="18">
         <f>M9*(1-M9)</f>
         <v>0.24114250453705233</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="R13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
@@ -4805,10 +6833,18 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="R14" s="15">
+        <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
+        <v>2.2622101145935336E-3</v>
+      </c>
+      <c r="S14" s="15">
+        <f>(E19*$S$27) + (R14*$S$28)</f>
+        <v>-0.46832133696562189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4822,14 +6858,14 @@
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2">
         <f>G17*J11*M17</f>
@@ -4841,17 +6877,20 @@
       <c r="K16" s="1"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="9">
         <f>G18*(1-G18)</f>
@@ -4862,12 +6901,16 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="15">
+      <c r="M17" s="20">
         <f>P9*M13</f>
         <v>-9.787630194244254E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="26">
+        <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
+        <v>0.49880848923713045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4875,11 +6918,11 @@
       <c r="E18" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="18">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="18">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -4888,9 +6931,10 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M18" s="21"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4898,8 +6942,8 @@
       <c r="E19" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -4907,7 +6951,15 @@
       <c r="L19" s="13"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4929,8 +6981,16 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="15">
+        <f>(G2*$M$17)+(G22*$M$37)+(G42*$M$57)+(G62*$M$77)</f>
+        <v>3.2936569441453664E-2</v>
+      </c>
+      <c r="S21" s="15">
+        <f>(J26*S27) + (R21*S28)</f>
+        <v>-7.1190291675639027E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4938,11 +6998,11 @@
       <c r="E22" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="18">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="18">
         <f>1/(1+EXP(-F22))</f>
         <v>0.58855620438582912</v>
       </c>
@@ -4952,8 +7012,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="9"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4961,23 +7027,31 @@
       <c r="E23" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="15">
+        <f>(G9*$M$17)+(G29*$M$37)+(G49*$M$57)+(G69*$M$77)</f>
+        <v>2.1918443623015146E-2</v>
+      </c>
+      <c r="S23" s="15">
+        <f>(J29*S27) + (R23*S28)</f>
+        <v>-0.88642446691309551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="9">
         <f>G22*(1-G22)</f>
@@ -4989,9 +7063,15 @@
       <c r="K24" s="1"/>
       <c r="L24" s="9"/>
       <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="R24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
@@ -4999,7 +7079,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
         <f>G24*J26*M37</f>
@@ -5011,9 +7091,17 @@
       <c r="K25" s="1"/>
       <c r="L25" s="9"/>
       <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="R25" s="15">
+        <f>(G18*$M$17)+(G38*$M$37)+(G58*$M$57)+(G78*$M$77)</f>
+        <v>2.1088136992682319E-2</v>
+      </c>
+      <c r="S25" s="15">
+        <f xml:space="preserve"> (J31*S27) + (R25*S28)</f>
+        <v>0.15432644109780469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5029,7 +7117,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5043,8 +7131,14 @@
       <c r="K27" s="1"/>
       <c r="L27" s="9"/>
       <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5068,8 +7162,14 @@
       <c r="P28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5077,11 +7177,11 @@
       <c r="E29" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="18">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.57699999999999996</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="18">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35962318536779009</v>
       </c>
@@ -5091,23 +7191,23 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="14">
+      <c r="L29" s="18">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.27419072229935881</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="18">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43187856951314224</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="19">
         <v>1</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="20">
         <f>O29-M29</f>
         <v>0.56812143048685781</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5115,25 +7215,25 @@
       <c r="E30" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="9">
         <f>G29*(1-G29)</f>
@@ -5148,14 +7248,14 @@
       <c r="L31" s="9"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2">
         <f>G31*J29*M37</f>
@@ -5167,13 +7267,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="9"/>
       <c r="M32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5186,17 +7283,13 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="14">
+      <c r="M33" s="18">
         <f>M29*(1-M29)</f>
         <v>0.24535947070842423</v>
       </c>
-      <c r="R33" s="15">
-        <f>(P9+P29+P49+P69)/4</f>
-        <v>6.6859543700717589E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
@@ -5210,11 +7303,10 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="14"/>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5228,14 +7320,14 @@
       <c r="L35" s="9"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
         <f>G37*J31*M37</f>
@@ -5247,23 +7339,17 @@
       <c r="K36" s="1"/>
       <c r="L36" s="9"/>
       <c r="M36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R36" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="9">
         <f>G38*(1-G38)</f>
@@ -5274,20 +7360,12 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="15">
+      <c r="M37" s="20">
         <f>P29*M33</f>
         <v>0.13939397348236826</v>
       </c>
-      <c r="R37" s="21">
-        <f>(G2*$M$17)+(G22*$M$37)+(G42*$M$57)+(G62*$M$77)</f>
-        <v>3.2936569441453664E-2</v>
-      </c>
-      <c r="S37" s="21">
-        <f>(J26*S43) + (R37*S44)</f>
-        <v>-7.1190291675639027E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5295,11 +7373,11 @@
       <c r="E38" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="18">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46899999999999997</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="18">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38485295749078957</v>
       </c>
@@ -5308,15 +7386,9 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="16"/>
-      <c r="R38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="S38" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5324,33 +7396,19 @@
       <c r="E39" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="13"/>
       <c r="M39" s="12"/>
-      <c r="R39" s="21">
-        <f>(G9*$M$17)+(G29*$M$37)+(G49*$M$57)+(G69*$M$77)</f>
-        <v>2.1918443623015146E-2</v>
-      </c>
-      <c r="S39" s="21">
-        <f>(J29*S43) + (R39*S44)</f>
-        <v>-0.88642446691309551</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M40" s="9"/>
-      <c r="R40" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S40" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5372,16 +7430,8 @@
       <c r="K41" s="4"/>
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
-      <c r="R41" s="21">
-        <f>(G18*$M$17)+(G38*$M$37)+(G58*$M$57)+(G78*$M$77)</f>
-        <v>2.1088136992682319E-2</v>
-      </c>
-      <c r="S41" s="21">
-        <f xml:space="preserve"> (J31*S43) + (R41*S44)</f>
-        <v>0.15432644109780469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5389,11 +7439,11 @@
       <c r="E42" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="18">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42399999999999999</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="18">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555998258063735</v>
       </c>
@@ -5404,7 +7454,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5412,29 +7462,23 @@
       <c r="E43" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="9"/>
       <c r="M43" s="8"/>
-      <c r="R43" t="s">
-        <v>12</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="9">
         <f>G42*(1-G42)</f>
@@ -5446,15 +7490,9 @@
       <c r="K44" s="1"/>
       <c r="L44" s="9"/>
       <c r="M44" s="8"/>
-      <c r="R44" t="s">
-        <v>11</v>
-      </c>
-      <c r="S44">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
@@ -5462,7 +7500,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2">
         <f>G44*J46*M57</f>
@@ -5475,8 +7513,8 @@
       <c r="L45" s="9"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5492,7 +7530,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5507,7 +7545,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5540,11 +7578,11 @@
       <c r="E49" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="18">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="18">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32300414376147701</v>
       </c>
@@ -5554,18 +7592,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="14">
+      <c r="L49" s="18">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.25421887269441767</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="18">
         <f>1/(1+EXP(-L49))</f>
         <v>0.43678536461116163</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="19">
         <v>1</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="20">
         <f>O49-M49</f>
         <v>0.56321463538883831</v>
       </c>
@@ -5578,16 +7616,16 @@
       <c r="E50" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="16"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -5596,7 +7634,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="9">
         <f>G49*(1-G49)</f>
@@ -5618,7 +7656,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2">
         <f>G51*J49*M57</f>
@@ -5630,7 +7668,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="9"/>
       <c r="M52" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -5646,13 +7684,13 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="14">
+      <c r="M53" s="18">
         <f>M49*(1-M49)</f>
         <v>0.24600390987265619</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
@@ -5666,10 +7704,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="14"/>
+      <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5690,7 +7728,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="2">
         <f>G57*J51*M57</f>
@@ -5702,7 +7740,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="9"/>
       <c r="M56" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -5712,7 +7750,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="9">
         <f>G58*(1-G58)</f>
@@ -5723,7 +7761,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="15">
+      <c r="M57" s="20">
         <f>P49*M53</f>
         <v>0.13855300240315671</v>
       </c>
@@ -5736,11 +7774,11 @@
       <c r="E58" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="18">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.96099999999999997</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="18">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27667802289494681</v>
       </c>
@@ -5749,7 +7787,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="16"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -5759,8 +7797,8 @@
       <c r="E59" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -5802,11 +7840,11 @@
       <c r="E62" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="18">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="18">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48350598689212332</v>
       </c>
@@ -5825,8 +7863,8 @@
       <c r="E63" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -5841,7 +7879,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="9">
         <f>G62*(1-G62)</f>
@@ -5855,7 +7893,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
+      <c r="A65" s="16">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
@@ -5863,7 +7901,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="2">
         <f>G64*J66*M77</f>
@@ -5877,7 +7915,7 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -5941,11 +7979,11 @@
       <c r="E69" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="18">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.3169999999999999</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="18">
         <f>1/(1+EXP(-F69))</f>
         <v>0.21131784831127748</v>
       </c>
@@ -5955,18 +7993,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="14">
+      <c r="L69" s="18">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.16834783505262085</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="18">
         <f>1/(1+EXP(-L69))</f>
         <v>0.45801215918849292</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="19">
         <v>0</v>
       </c>
-      <c r="P69" s="15">
+      <c r="P69" s="20">
         <f>O69-M69</f>
         <v>-0.45801215918849292</v>
       </c>
@@ -5979,16 +8017,16 @@
       <c r="E70" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="16"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="21"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -5997,7 +8035,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="9">
         <f>G69*(1-G69)</f>
@@ -6019,7 +8057,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2">
         <f>G71*J69*M77</f>
@@ -6031,7 +8069,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -6047,13 +8085,13 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="14">
+      <c r="M73" s="18">
         <f>M69*(1-M69)</f>
         <v>0.24823702122398755</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
@@ -6067,10 +8105,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="14"/>
+      <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6091,7 +8129,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="2">
         <f>G77*J71*M77</f>
@@ -6103,7 +8141,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="9"/>
       <c r="M76" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -6113,7 +8151,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="9">
         <f>G78*(1-G78)</f>
@@ -6124,7 +8162,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="15">
+      <c r="M77" s="20">
         <f>P69*M73</f>
         <v>-0.11369557408131828</v>
       </c>
@@ -6137,11 +8175,11 @@
       <c r="E78" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="18">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.43</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="18">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19309868423321644</v>
       </c>
@@ -6150,7 +8188,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="16"/>
+      <c r="M78" s="21"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -6160,8 +8198,8 @@
       <c r="E79" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6171,32 +8209,21 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="O69:O70"/>
     <mergeCell ref="P69:P70"/>
     <mergeCell ref="P49:P50"/>
@@ -6213,21 +8240,32 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="F58:F59"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="G58:G59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6237,29 +8275,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C46162-8F88-4BF5-AC4A-247FF224E923}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
     <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -6270,61 +8311,83 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="9">
+        <f>step0!$S$2</f>
+        <v>-0.42402414335547328</v>
+      </c>
+      <c r="F2" s="18">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="18">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="23">
+        <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
+        <v>-3.2023292064579527E-5</v>
+      </c>
+      <c r="S2" s="25">
+        <f>(E2*S27) + (R2*S28)</f>
+        <v>-0.42403375034309265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="9">
+        <f>step0!$S$4</f>
+        <v>0.35797265188542493</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="9">
         <f>G2*(1-G2)</f>
@@ -6332,76 +8395,99 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="R4" s="22">
+        <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
+        <v>-3.6301205903105252E-5</v>
+      </c>
+      <c r="S4" s="15">
+        <f>(E3*$S$27) + (R4*$S$28)</f>
+        <v>0.357961761523654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
         <f>G4*J6*M17</f>
-        <v>4.1597428325538085E-4</v>
+        <v>1.7574718678703966E-4</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>-1.7000000000000001E-2</v>
+      <c r="J6" s="9">
+        <f>step0!$S$21</f>
+        <v>-7.1190291675639027E-3</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="15">
+        <f>($A$5*$G$12)+($A$25*$G$32)+($A$45*$G$52)+($A$65*$G$72)</f>
+        <v>-9.9366505813259613E-3</v>
+      </c>
+      <c r="S7" s="15">
+        <f>(E9*$S$27) + (R7*$S$28)</f>
+        <v>-0.74602137220984965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
       <c r="L8" s="9" t="s">
         <v>2</v>
@@ -6409,81 +8495,95 @@
       <c r="M8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
       <c r="O8" t="s">
         <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="E9" s="9">
+        <f>step0!$S$7</f>
+        <v>-0.74304037703545189</v>
+      </c>
+      <c r="F9" s="18">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="18">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>-0.89300000000000002</v>
+      <c r="J9" s="9">
+        <f>step0!$S$23</f>
+        <v>-0.88642446691309551</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="14">
+      <c r="L9" s="18">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
-        <v>-0.38100000000000001</v>
-      </c>
-      <c r="M9" s="14">
+        <v>-0.36960852749142736</v>
+      </c>
+      <c r="M9" s="18">
         <f>1/(1+EXP(-L9))</f>
-        <v>0.40588573188433286</v>
-      </c>
-      <c r="O9" s="17">
+        <v>0.40863561851246799</v>
+      </c>
+      <c r="O9" s="19">
         <v>0</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="20">
         <f>O9-M9</f>
-        <v>-0.40588573188433286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-0.40863561851246799</v>
+      </c>
+      <c r="R9" s="15">
+        <f>($A$14*$G$12)+($A$34*$G$32)+($A$54*$G$52)+($A$74*$G$72)</f>
+        <v>-1.1510189732543454E-2</v>
+      </c>
+      <c r="S9" s="15">
+        <f>(E10*$S$27) + (R9*$S$28)</f>
+        <v>-0.58397670350079212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="9">
+        <f>step0!$S$9</f>
+        <v>-0.58052364658102906</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="9">
         <f>G9*(1-G9)</f>
@@ -6491,115 +8591,147 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>0.14799999999999999</v>
+      <c r="J11" s="9">
+        <f>step0!$S$25</f>
+        <v>0.15432644109780469</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <f>G11*J9*M17</f>
-        <v>2.1850884408650299E-2</v>
+        <v>2.188312516950781E-2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R12" s="15">
+        <f>($A$5*$G$16)+($A$25*$G$36)+($A$45*$G$56)+($A$65*$G$76)</f>
+        <v>1.5187003708968649E-3</v>
+      </c>
+      <c r="S12" s="15">
+        <f>(E18*$S$27) + (R12*$S$28)</f>
+        <v>-0.9600998060192153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="14">
+      <c r="M13" s="18">
         <f>M9*(1-M9)</f>
-        <v>0.24114250453705233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+        <v>0.24165254979540071</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="R14" s="15">
+        <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
+        <v>2.3261815619461858E-3</v>
+      </c>
+      <c r="S14" s="15">
+        <f>(E19*$S$27) + (R14*$S$28)</f>
+        <v>-0.46762348249703806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="1"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2">
         <f>G17*J11*M17</f>
-        <v>-3.6214231718703738E-3</v>
+        <v>-3.8098506455587571E-3</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="1"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="9">
         <f>G18*(1-G18)</f>
@@ -6607,60 +8739,75 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="15">
+      <c r="M17" s="20">
         <f>P9*M13</f>
-        <v>-9.787630194244254E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9.8747839150758535E-2</v>
+      </c>
+      <c r="R17" s="26">
+        <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
+        <v>0.49880315314463519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="9">
+        <f>step0!$S$12</f>
+        <v>-0.96055541613048434</v>
+      </c>
+      <c r="F18" s="18">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="18">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="21"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="13">
+        <f>step0!$S$14</f>
+        <v>-0.46832133696562189</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="11"/>
       <c r="L19" s="13"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -6671,138 +8818,183 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="15">
+        <f>(G2*$M$17)+(G22*$M$37)+(G42*$M$57)+(G62*$M$77)</f>
+        <v>3.1789963419479518E-2</v>
+      </c>
+      <c r="S21" s="15">
+        <f>(J26*S27) + (R21*S28)</f>
+        <v>2.4179598582799531E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E22" s="9">
+        <f>step0!$S$2</f>
+        <v>-0.42402414335547328</v>
+      </c>
+      <c r="F22" s="18">
         <f>(A25*E22)+(A34*E23)</f>
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="G22" s="14">
+        <v>0.35797265188542493</v>
+      </c>
+      <c r="G22" s="18">
         <f>1/(1+EXP(-F22))</f>
-        <v>0.58855620438582912</v>
+        <v>0.5885495818105676</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="1"/>
       <c r="L22" s="9"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="9">
+        <f>step0!$S$4</f>
+        <v>0.35797265188542493</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="1"/>
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="15">
+        <f>(G9*$M$17)+(G29*$M$37)+(G49*$M$57)+(G69*$M$77)</f>
+        <v>2.0989279017254524E-2</v>
+      </c>
+      <c r="S23" s="15">
+        <f>(J29*S27) + (R23*S28)</f>
+        <v>-0.88012768320791912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="9">
         <f>G22*(1-G22)</f>
-        <v>0.24215779866477527</v>
+        <v>0.24215897156117361</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="1"/>
       <c r="L24" s="9"/>
       <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="R24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
         <f>G24*J26*M37</f>
-        <v>-5.7384074201564808E-4</v>
+        <v>-2.3948941033672996E-4</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="1"/>
       <c r="L25" s="9"/>
       <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="R25" s="15">
+        <f>(G18*$M$17)+(G38*$M$37)+(G58*$M$57)+(G78*$M$77)</f>
+        <v>2.026902319665352E-2</v>
+      </c>
+      <c r="S25" s="15">
+        <f xml:space="preserve"> (J31*S27) + (R25*S28)</f>
+        <v>0.16040714805680076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <v>-1.7000000000000001E-2</v>
+      <c r="J26" s="9">
+        <f>step0!$S$21</f>
+        <v>-7.1190291675639027E-3</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="9"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="9"/>
       <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1"/>
       <c r="L28" s="9" t="s">
         <v>2</v>
@@ -6816,260 +9008,264 @@
       <c r="P28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="E29" s="9">
+        <f>step0!$S$7</f>
+        <v>-0.74304037703545189</v>
+      </c>
+      <c r="F29" s="18">
         <f>(A25*E29)+(A34*E30)</f>
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="G29" s="14">
+        <v>-0.58052364658102906</v>
+      </c>
+      <c r="G29" s="18">
         <f>1/(1+EXP(-F29))</f>
-        <v>0.35962318536779009</v>
+        <v>0.35881211149647002</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1">
-        <v>-0.89300000000000002</v>
+      <c r="J29" s="9">
+        <f>step0!$S$23</f>
+        <v>-0.88642446691309551</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="14">
+      <c r="L29" s="18">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
-        <v>-0.27419072229935881</v>
-      </c>
-      <c r="M29" s="14">
+        <v>-0.26283195184300268</v>
+      </c>
+      <c r="M29" s="18">
         <f>1/(1+EXP(-L29))</f>
-        <v>0.43187856951314224</v>
-      </c>
-      <c r="O29" s="17">
+        <v>0.43466767957787833</v>
+      </c>
+      <c r="O29" s="19">
         <v>1</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="20">
         <f>O29-M29</f>
-        <v>0.56812143048685781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.56533232042212167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="9">
+        <f>step0!$S$9</f>
+        <v>-0.58052364658102906</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="9">
         <f>G29*(1-G29)</f>
-        <v>0.2302943499137142</v>
+        <v>0.23006598013991481</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1">
-        <v>0.14799999999999999</v>
+      <c r="J31" s="9">
+        <f>step0!$S$25</f>
+        <v>0.15432644109780469</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="9"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2">
         <f>G31*J29*M37</f>
-        <v>-2.8666768542975285E-2</v>
+        <v>-2.8330818251563018E-2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
       <c r="L32" s="9"/>
       <c r="M32" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="14">
+      <c r="M33" s="18">
         <f>M29*(1-M29)</f>
-        <v>0.24535947070842423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+        <v>0.24573168790826122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="9"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
         <f>G37*J31*M37</f>
-        <v>4.8840430360713978E-3</v>
+        <v>5.0762957675711106E-3</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="1"/>
       <c r="L36" s="9"/>
       <c r="M36" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="9">
         <f>G38*(1-G38)</f>
-        <v>0.23674115860138212</v>
+        <v>0.2367781364422816</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="15">
+      <c r="M37" s="20">
         <f>P29*M33</f>
-        <v>0.13939397348236826</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.13892006532642193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="F38" s="14">
+      <c r="E38" s="9">
+        <f>step0!$S$12</f>
+        <v>-0.96055541613048434</v>
+      </c>
+      <c r="F38" s="18">
         <f>(A25*E38)+(A34*E39)</f>
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="G38" s="14">
+        <v>-0.46832133696562189</v>
+      </c>
+      <c r="G38" s="18">
         <f>1/(1+EXP(-F38))</f>
-        <v>0.38485295749078957</v>
+        <v>0.38501363751418871</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="16"/>
-      <c r="R38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="13">
+        <f>step0!$S$14</f>
+        <v>-0.46832133696562189</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="11"/>
       <c r="L39" s="13"/>
       <c r="M39" s="12"/>
-      <c r="R39" s="15">
-        <f>(P9+P29+P49+P69)/4</f>
-        <v>6.6859543700717589E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M40" s="9"/>
-      <c r="R40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -7080,138 +9276,141 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="E42" s="9">
+        <f>step0!$S$2</f>
+        <v>-0.42402414335547328</v>
+      </c>
+      <c r="F42" s="18">
         <f>(A45*E42)+(A54*E43)</f>
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="G42" s="14">
+        <v>-0.42402414335547328</v>
+      </c>
+      <c r="G42" s="18">
         <f>1/(1+EXP(-F42))</f>
-        <v>0.39555998258063735</v>
+        <v>0.39555421010521946</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="9"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="E43" s="9">
+        <f>step0!$S$4</f>
+        <v>0.35797265188542493</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="1"/>
       <c r="L43" s="9"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="9">
         <f>G42*(1-G42)</f>
-        <v>0.23909228276144326</v>
+        <v>0.23909107697325538</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
       <c r="L44" s="9"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2">
         <f>G44*J46*M57</f>
-        <v>-5.6315821167638206E-4</v>
+        <v>-2.3521149649820424E-4</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="9"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1">
-        <v>-1.7000000000000001E-2</v>
+      <c r="J46" s="9">
+        <f>step0!$S$21</f>
+        <v>-7.1190291675639027E-3</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="9"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="1"/>
       <c r="L47" s="9"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="1"/>
       <c r="L48" s="9" t="s">
         <v>2</v>
@@ -7231,37 +9430,39 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="F49" s="14">
+      <c r="E49" s="9">
+        <f>step0!$S$7</f>
+        <v>-0.74304037703545189</v>
+      </c>
+      <c r="F49" s="18">
         <f>(A45*E49)+(A54*E50)</f>
-        <v>-0.74</v>
-      </c>
-      <c r="G49" s="14">
+        <v>-0.74304037703545189</v>
+      </c>
+      <c r="G49" s="18">
         <f>1/(1+EXP(-F49))</f>
-        <v>0.32300414376147701</v>
+        <v>0.32233965511080459</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1">
-        <v>-0.89300000000000002</v>
+      <c r="J49" s="9">
+        <f>step0!$S$23</f>
+        <v>-0.88642446691309551</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="14">
+      <c r="L49" s="18">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
-        <v>-0.25421887269441767</v>
-      </c>
-      <c r="M49" s="14">
+        <v>-0.24583325199601103</v>
+      </c>
+      <c r="M49" s="18">
         <f>1/(1+EXP(-L49))</f>
-        <v>0.43678536461116163</v>
-      </c>
-      <c r="O49" s="17">
+        <v>0.43884934209700804</v>
+      </c>
+      <c r="O49" s="19">
         <v>1</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="20">
         <f>O49-M49</f>
-        <v>0.56321463538883831</v>
+        <v>0.5611506579029919</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -7269,37 +9470,39 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="E50" s="9">
+        <f>step0!$S$9</f>
+        <v>-0.58052364658102906</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="16"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="9">
         <f>G49*(1-G49)</f>
-        <v>0.2186724668743921</v>
+        <v>0.21843680185385211</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1">
-        <v>0.14799999999999999</v>
+      <c r="J51" s="9">
+        <f>step0!$S$25</f>
+        <v>0.15432644109780469</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="9"/>
@@ -7310,21 +9513,21 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2">
         <f>G51*J49*M57</f>
-        <v>-2.7055870057718204E-2</v>
+        <v>-2.6757279100345525E-2</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="1"/>
       <c r="L52" s="9"/>
       <c r="M52" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -7332,47 +9535,47 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="14">
+      <c r="M53" s="18">
         <f>M49*(1-M49)</f>
-        <v>0.24600390987265619</v>
+        <v>0.24626059703803121</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="14"/>
+      <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
@@ -7382,21 +9585,21 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="2">
         <f>G57*J51*M57</f>
-        <v>4.1037791531967627E-3</v>
+        <v>4.2688145765217896E-3</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="1"/>
       <c r="L56" s="9"/>
       <c r="M56" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -7404,22 +9607,22 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="9">
         <f>G58*(1-G58)</f>
-        <v>0.2001272945418901</v>
+        <v>0.20016702998579472</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="15">
+      <c r="M57" s="20">
         <f>P49*M53</f>
-        <v>0.13855300240315671</v>
+        <v>0.1381892960434748</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -7427,37 +9630,39 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1">
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="F58" s="14">
+      <c r="E58" s="9">
+        <f>step0!$S$12</f>
+        <v>-0.96055541613048434</v>
+      </c>
+      <c r="F58" s="18">
         <f>(A45*E58)+(A54*E59)</f>
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="G58" s="14">
+        <v>-0.96055541613048434</v>
+      </c>
+      <c r="G58" s="18">
         <f>1/(1+EXP(-F58))</f>
-        <v>0.27667802289494681</v>
+        <v>0.27676700509511304</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="16"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="E59" s="13">
+        <f>step0!$S$14</f>
+        <v>-0.46832133696562189</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="11"/>
       <c r="L59" s="13"/>
       <c r="M59" s="12"/>
@@ -7470,7 +9675,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -7481,7 +9686,7 @@
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K61" s="4"/>
@@ -7493,20 +9698,21 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="F62" s="14">
+      <c r="E62" s="9">
+        <f>step0!$S$2</f>
+        <v>-0.42402414335547328</v>
+      </c>
+      <c r="F62" s="18">
         <f>(A65*E62)+(A74*E63)</f>
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="G62" s="14">
+        <v>-6.6051491470048351E-2</v>
+      </c>
+      <c r="G62" s="18">
         <f>1/(1+EXP(-F62))</f>
-        <v>0.48350598689212332</v>
+        <v>0.48349312804391664</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="1"/>
       <c r="L62" s="9"/>
       <c r="M62" s="8"/>
@@ -7516,14 +9722,15 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="E63" s="9">
+        <f>step0!$S$4</f>
+        <v>0.35797265188542493</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="1"/>
       <c r="L63" s="9"/>
       <c r="M63" s="8"/>
@@ -7533,55 +9740,56 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="9">
         <f>G62*(1-G62)</f>
-        <v>0.24972794753159719</v>
+        <v>0.24972752317822547</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="1"/>
       <c r="L64" s="9"/>
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
+      <c r="A65" s="16">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="2">
         <f>G64*J66*M77</f>
-        <v>4.8268036009882265E-4</v>
+        <v>2.0318820443362471E-4</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1"/>
       <c r="L65" s="9"/>
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1">
-        <v>-1.7000000000000001E-2</v>
+      <c r="J66" s="9">
+        <f>step0!$S$21</f>
+        <v>-7.1190291675639027E-3</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="9"/>
@@ -7592,12 +9800,12 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="9"/>
       <c r="M67" s="8"/>
@@ -7607,12 +9815,12 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="1"/>
       <c r="L68" s="9" t="s">
         <v>2</v>
@@ -7632,37 +9840,39 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="F69" s="14">
+      <c r="E69" s="9">
+        <f>step0!$S$7</f>
+        <v>-0.74304037703545189</v>
+      </c>
+      <c r="F69" s="18">
         <f>(A65*E69)+(A74*E70)</f>
-        <v>-1.3169999999999999</v>
-      </c>
-      <c r="G69" s="14">
+        <v>-1.323564023616481</v>
+      </c>
+      <c r="G69" s="18">
         <f>1/(1+EXP(-F69))</f>
-        <v>0.21131784831127748</v>
+        <v>0.21022594395654032</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1">
-        <v>-0.89300000000000002</v>
+      <c r="J69" s="9">
+        <f>step0!$S$23</f>
+        <v>-0.88642446691309551</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="14">
+      <c r="L69" s="18">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
-        <v>-0.16834783505262085</v>
-      </c>
-      <c r="M69" s="14">
+        <v>-0.15996417053105691</v>
+      </c>
+      <c r="M69" s="18">
         <f>1/(1+EXP(-L69))</f>
-        <v>0.45801215918849292</v>
-      </c>
-      <c r="O69" s="17">
+        <v>0.46009401574095915</v>
+      </c>
+      <c r="O69" s="19">
         <v>0</v>
       </c>
-      <c r="P69" s="15">
+      <c r="P69" s="20">
         <f>O69-M69</f>
-        <v>-0.45801215918849292</v>
+        <v>-0.46009401574095915</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -7670,37 +9880,39 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="E70" s="9">
+        <f>step0!$S$9</f>
+        <v>-0.58052364658102906</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="16"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="21"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="9">
         <f>G69*(1-G69)</f>
-        <v>0.16666261529636942</v>
+        <v>0.16603099644412186</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1">
-        <v>0.14799999999999999</v>
+      <c r="J71" s="9">
+        <f>step0!$S$25</f>
+        <v>0.15432644109780469</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="9"/>
@@ -7711,21 +9923,21 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2">
         <f>G71*J69*M77</f>
-        <v>1.6921279939545054E-2</v>
+        <v>1.6820628519019564E-2</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="1"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -7733,47 +9945,47 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="14">
+      <c r="M73" s="18">
         <f>M69*(1-M69)</f>
-        <v>0.24823702122398755</v>
+        <v>0.24840751242031717</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="14"/>
+      <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="1"/>
       <c r="L75" s="9"/>
       <c r="M75" s="8"/>
@@ -7783,21 +9995,21 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="2">
         <f>G77*J71*M77</f>
-        <v>-2.6218329214778642E-3</v>
+        <v>-2.7501142056249248E-3</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="1"/>
       <c r="L76" s="9"/>
       <c r="M76" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -7805,22 +10017,22 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="9">
         <f>G78*(1-G78)</f>
-        <v>0.15581158238061701</v>
+        <v>0.15591901335516686</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="15">
+      <c r="M77" s="20">
         <f>P69*M73</f>
-        <v>-0.11369557408131828</v>
+        <v>-0.11429080992968592</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -7828,37 +10040,1908 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1">
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="F78" s="14">
+      <c r="E78" s="9">
+        <f>step0!$S$12</f>
+        <v>-0.96055541613048434</v>
+      </c>
+      <c r="F78" s="18">
         <f>(A65*E78)+(A74*E79)</f>
-        <v>-1.43</v>
-      </c>
-      <c r="G78" s="14">
+        <v>-1.4288767530961062</v>
+      </c>
+      <c r="G78" s="18">
         <f>1/(1+EXP(-F78))</f>
-        <v>0.19309868423321644</v>
+        <v>0.19327375944527808</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="16"/>
+      <c r="M78" s="21"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="E79" s="13">
+        <f>step0!$S$14</f>
+        <v>-0.46832133696562189</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="O69:O70"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29B87ED-E6F5-41E2-8A80-DF5A2EBBEB7B}">
+  <dimension ref="A1:S79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="8"/>
+      <c r="R1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="9">
+        <f>step1!$S$2</f>
+        <v>-0.42403375034309265</v>
+      </c>
+      <c r="F2" s="18">
+        <f>(A5*E2)+(A14*E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <f>1/(1+EXP(-F2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="R2" s="23">
+        <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
+        <v>1.0326082050734787E-5</v>
+      </c>
+      <c r="S2" s="25">
+        <f>(E2*S27) + (R2*S28)</f>
+        <v>-0.42403065251847744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="9">
+        <f>step1!$S$4</f>
+        <v>0.357961761523654</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="R3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9">
+        <f>G2*(1-G2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="R4" s="22">
+        <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
+        <v>1.1711554224451838E-5</v>
+      </c>
+      <c r="S4" s="15">
+        <f>(E3*$S$27) + (R4*$S$28)</f>
+        <v>0.35796527498992131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4*J6*M17</f>
+        <v>-6.0197913186669504E-5</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9">
+        <f>step1!$S$21</f>
+        <v>2.4179598582799531E-3</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="R6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="R7" s="15">
+        <f>($A$5*$G$12)+($A$25*$G$32)+($A$45*$G$52)+($A$65*$G$72)</f>
+        <v>-9.7487045780156358E-3</v>
+      </c>
+      <c r="S7" s="15">
+        <f>(E9*$S$27) + (R7*$S$28)</f>
+        <v>-0.74894598358325437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9">
+        <f>step1!$S$7</f>
+        <v>-0.74602137220984965</v>
+      </c>
+      <c r="F9" s="18">
+        <f>(A5*E9)+(A14*E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <f>1/(1+EXP(-F9))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="9">
+        <f>step1!$S$23</f>
+        <v>-0.88012768320791912</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="18">
+        <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
+        <v>-0.35865128764641918</v>
+      </c>
+      <c r="M9" s="18">
+        <f>1/(1+EXP(-L9))</f>
+        <v>0.41128609033273167</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <f>O9-M9</f>
+        <v>-0.41128609033273167</v>
+      </c>
+      <c r="R9" s="15">
+        <f>($A$14*$G$12)+($A$34*$G$32)+($A$54*$G$52)+($A$74*$G$72)</f>
+        <v>-1.1285584968839718E-2</v>
+      </c>
+      <c r="S9" s="15">
+        <f>(E10*$S$27) + (R9*$S$28)</f>
+        <v>-0.58736237899144406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="9">
+        <f>step1!$S$9</f>
+        <v>-0.58397670350079212</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9">
+        <f>G9*(1-G9)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9">
+        <f>step1!$S$25</f>
+        <v>0.16040714805680076</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="R11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G11*J9*M17</f>
+        <v>2.1911798777596001E-2</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="15">
+        <f>($A$5*$G$16)+($A$25*$G$36)+($A$45*$G$56)+($A$65*$G$76)</f>
+        <v>1.5517021441081437E-3</v>
+      </c>
+      <c r="S12" s="15">
+        <f>(E18*$S$27) + (R12*$S$28)</f>
+        <v>-0.95963429537598288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="18">
+        <f>M9*(1-M9)</f>
+        <v>0.24212984223154776</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="18"/>
+      <c r="R14" s="15">
+        <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
+        <v>2.3846237171707171E-3</v>
+      </c>
+      <c r="S14" s="15">
+        <f>(E19*$S$27) + (R14*$S$28)</f>
+        <v>-0.46690809538188682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G17*J11*M17</f>
+        <v>-3.9935218693471523E-3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="9">
+        <f>G18*(1-G18)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="20">
+        <f>P9*M13</f>
+        <v>-9.9584636164294416E-2</v>
+      </c>
+      <c r="R17" s="26">
+        <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
+        <v>0.49879784301301366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9">
+        <f>step1!$S$12</f>
+        <v>-0.9600998060192153</v>
+      </c>
+      <c r="F18" s="18">
+        <f>(A5*E18)+(A14*E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <f>1/(1+EXP(-F18))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="21"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13">
+        <f>step1!$S$14</f>
+        <v>-0.46762348249703806</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="R21" s="15">
+        <f>(G2*$M$17)+(G22*$M$37)+(G42*$M$57)+(G62*$M$77)</f>
+        <v>3.0679670866922963E-2</v>
+      </c>
+      <c r="S21" s="15">
+        <f>(J26*S27) + (R21*S28)</f>
+        <v>1.1621861118356842E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="9">
+        <f>step1!$S$2</f>
+        <v>-0.42403375034309265</v>
+      </c>
+      <c r="F22" s="18">
+        <f>(A25*E22)+(A34*E23)</f>
+        <v>0.357961761523654</v>
+      </c>
+      <c r="G22" s="18">
+        <f>1/(1+EXP(-F22))</f>
+        <v>0.58854694460921808</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="R22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="9">
+        <f>step1!$S$4</f>
+        <v>0.357961761523654</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="R23" s="15">
+        <f>(G9*$M$17)+(G29*$M$37)+(G49*$M$57)+(G69*$M$77)</f>
+        <v>2.0091299895130858E-2</v>
+      </c>
+      <c r="S23" s="15">
+        <f>(J29*S27) + (R23*S28)</f>
+        <v>-0.87410029323937988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9">
+        <f>G22*(1-G22)</f>
+        <v>0.24215943860037206</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+      <c r="R24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G24*J26*M37</f>
+        <v>8.106848898311301E-5</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="8"/>
+      <c r="R25" s="15">
+        <f>(G18*$M$17)+(G38*$M$37)+(G58*$M$57)+(G78*$M$77)</f>
+        <v>1.9476653184338381E-2</v>
+      </c>
+      <c r="S25" s="15">
+        <f xml:space="preserve"> (J31*S27) + (R25*S28)</f>
+        <v>0.16625014401210228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="9">
+        <f>step1!$S$21</f>
+        <v>2.4179598582799531E-3</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9">
+        <f>step1!$S$7</f>
+        <v>-0.74602137220984965</v>
+      </c>
+      <c r="F29" s="18">
+        <f>(A25*E29)+(A34*E30)</f>
+        <v>-0.58397670350079212</v>
+      </c>
+      <c r="G29" s="18">
+        <f>1/(1+EXP(-F29))</f>
+        <v>0.35801806848037848</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9">
+        <f>step1!$S$23</f>
+        <v>-0.88012768320791912</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="18">
+        <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
+        <v>-0.25189308344415234</v>
+      </c>
+      <c r="M29" s="18">
+        <f>1/(1+EXP(-L29))</f>
+        <v>0.43735760173486149</v>
+      </c>
+      <c r="O29" s="19">
+        <v>1</v>
+      </c>
+      <c r="P29" s="20">
+        <f>O29-M29</f>
+        <v>0.56264239826513851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9">
+        <f>step1!$S$9</f>
+        <v>-0.58397670350079212</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="9">
+        <f>G29*(1-G29)</f>
+        <v>0.22984113112195753</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="9">
+        <f>step1!$S$25</f>
+        <v>0.16040714805680076</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2">
+        <f>G31*J29*M37</f>
+        <v>-2.8007543697863468E-2</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="18">
+        <f>M29*(1-M29)</f>
+        <v>0.24607592993959176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <f>G37*J31*M37</f>
+        <v>5.2594042730369E-3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="9">
+        <f>G38*(1-G38)</f>
+        <v>0.23681611211239798</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="20">
+        <f>P29*M33</f>
+        <v>0.13845275137653612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="9">
+        <f>step1!$S$12</f>
+        <v>-0.9600998060192153</v>
+      </c>
+      <c r="F38" s="18">
+        <f>(A25*E38)+(A34*E39)</f>
+        <v>-0.46762348249703806</v>
+      </c>
+      <c r="G38" s="18">
+        <f>1/(1+EXP(-F38))</f>
+        <v>0.38517888744833539</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13">
+        <f>step1!$S$14</f>
+        <v>-0.46762348249703806</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="9">
+        <f>step1!$S$2</f>
+        <v>-0.42403375034309265</v>
+      </c>
+      <c r="F42" s="18">
+        <f>(A45*E42)+(A54*E43)</f>
+        <v>-0.42403375034309265</v>
+      </c>
+      <c r="G42" s="18">
+        <f>1/(1+EXP(-F42))</f>
+        <v>0.39555191316250787</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9">
+        <f>step1!$S$4</f>
+        <v>0.357961761523654</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="9">
+        <f>G42*(1-G42)</f>
+        <v>0.23909059715598774</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2">
+        <f>G44*J46*M57</f>
+        <v>7.968301680939596E-5</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="9">
+        <f>step1!$S$21</f>
+        <v>2.4179598582799531E-3</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="9">
+        <f>step1!$S$7</f>
+        <v>-0.74602137220984965</v>
+      </c>
+      <c r="F49" s="18">
+        <f>(A45*E49)+(A54*E50)</f>
+        <v>-0.74602137220984965</v>
+      </c>
+      <c r="G49" s="18">
+        <f>1/(1+EXP(-F49))</f>
+        <v>0.32168884121456626</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="9">
+        <f>step1!$S$23</f>
+        <v>-0.88012768320791912</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="18">
+        <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
+        <v>-0.23776078960205149</v>
+      </c>
+      <c r="M49" s="18">
+        <f>1/(1+EXP(-L49))</f>
+        <v>0.44083824249883063</v>
+      </c>
+      <c r="O49" s="19">
+        <v>1</v>
+      </c>
+      <c r="P49" s="20">
+        <f>O49-M49</f>
+        <v>0.55916175750116937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="9">
+        <f>step1!$S$9</f>
+        <v>-0.58397670350079212</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="21"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="9">
+        <f>G49*(1-G49)</f>
+        <v>0.21820513065259586</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="9">
+        <f>step1!$S$25</f>
+        <v>0.16040714805680076</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2">
+        <f>G51*J49*M57</f>
+        <v>-2.6470663307039385E-2</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="18">
+        <f>M49*(1-M49)</f>
+        <v>0.24649988644937282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2">
+        <f>G57*J51*M57</f>
+        <v>4.4264826999743266E-3</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="9">
+        <f>G58*(1-G58)</f>
+        <v>0.20020774266808691</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="20">
+        <f>P49*M53</f>
+        <v>0.13783330973086999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="9">
+        <f>step1!$S$12</f>
+        <v>-0.9600998060192153</v>
+      </c>
+      <c r="F58" s="18">
+        <f>(A45*E58)+(A54*E59)</f>
+        <v>-0.9600998060192153</v>
+      </c>
+      <c r="G58" s="18">
+        <f>1/(1+EXP(-F58))</f>
+        <v>0.27685821249278947</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="21"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="13">
+        <f>step1!$S$14</f>
+        <v>-0.46762348249703806</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="9">
+        <f>step1!$S$2</f>
+        <v>-0.42403375034309265</v>
+      </c>
+      <c r="F62" s="18">
+        <f>(A65*E62)+(A74*E63)</f>
+        <v>-6.6071988819438654E-2</v>
+      </c>
+      <c r="G62" s="18">
+        <f>1/(1+EXP(-F62))</f>
+        <v>0.48348800929335378</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="9">
+        <f>step1!$S$4</f>
+        <v>0.357961761523654</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="9">
+        <f>G62*(1-G62)</f>
+        <v>0.24972735416290362</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2">
+        <f>G64*J66*M77</f>
+        <v>-6.9356934758661173E-5</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="9">
+        <f>step1!$S$21</f>
+        <v>2.4179598582799531E-3</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="9">
+        <f>step1!$S$7</f>
+        <v>-0.74602137220984965</v>
+      </c>
+      <c r="F69" s="18">
+        <f>(A65*E69)+(A74*E70)</f>
+        <v>-1.3299980757106418</v>
+      </c>
+      <c r="G69" s="18">
+        <f>1/(1+EXP(-F69))</f>
+        <v>0.20915968351326389</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="9">
+        <f>step1!$S$23</f>
+        <v>-0.88012768320791912</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="18">
+        <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
+        <v>-0.15188682156486999</v>
+      </c>
+      <c r="M69" s="18">
+        <f>1/(1+EXP(-L69))</f>
+        <v>0.46210112595301511</v>
+      </c>
+      <c r="O69" s="19">
+        <v>0</v>
+      </c>
+      <c r="P69" s="20">
+        <f>O69-M69</f>
+        <v>-0.46210112595301511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="9">
+        <f>step1!$S$9</f>
+        <v>-0.58397670350079212</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="21"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="9">
+        <f>G69*(1-G69)</f>
+        <v>0.16541191030589519</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="9">
+        <f>step1!$S$25</f>
+        <v>0.16040714805680076</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="2">
+        <f>G71*J69*M77</f>
+        <v>1.672195872902375E-2</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="18">
+        <f>M69*(1-M69)</f>
+        <v>0.24856367534597076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2">
+        <f>G77*J71*M77</f>
+        <v>-2.8747805558661829E-3</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="9">
+        <f>G78*(1-G78)</f>
+        <v>0.15602934764726611</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="20">
+        <f>P69*M73</f>
+        <v>-0.1148615542483928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="9">
+        <f>step1!$S$12</f>
+        <v>-0.9600998060192153</v>
+      </c>
+      <c r="F78" s="18">
+        <f>(A65*E78)+(A74*E79)</f>
+        <v>-1.4277232885162534</v>
+      </c>
+      <c r="G78" s="18">
+        <f>1/(1+EXP(-F78))</f>
+        <v>0.19345367013657808</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="21"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="13">
+        <f>step1!$S$14</f>
+        <v>-0.46762348249703806</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="13"/>
       <c r="K79" s="11"/>
       <c r="L79" s="13"/>
       <c r="M79" s="12"/>
@@ -7884,9 +11967,9 @@
     <mergeCell ref="G58:G59"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="G62:G63"/>
-    <mergeCell ref="R39:R40"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
+    <mergeCell ref="R17:R18"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>

--- a/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
+++ b/redes neurais - implementacoes sem frameworks/03 - calculos - rede neural multicamada.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santc\workspace-github\ai-and-data-science-studies\redes neurais - implementacoes sem frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F0751-EE82-4790-9889-4036E402B972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33592B8C-3E19-4CFD-B670-CAFF9DB0CC97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="1980" windowWidth="36525" windowHeight="12045" activeTab="1" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
+    <workbookView xWindow="10890" yWindow="18315" windowWidth="36525" windowHeight="12045" activeTab="3" xr2:uid="{3E71A62B-BD45-4494-896A-6744D8BCD0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="step0" sheetId="1" r:id="rId1"/>
     <sheet name="step1" sheetId="2" r:id="rId2"/>
     <sheet name="step2" sheetId="3" r:id="rId3"/>
+    <sheet name="Anotações" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sant'Clear Ali Costa</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9B397792-763B-4990-ACBB-A5A0E5989944}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sant'Clear Ali Costa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Modelo inicial. É interessante e recomendável aumentar a quantidade de neurônios até alcançar resultados satisfatórios.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="27">
   <si>
     <t>Pesos</t>
   </si>
@@ -151,6 +186,30 @@
   <si>
     <t xml:space="preserve">cam oculta: entrada * delta </t>
   </si>
+  <si>
+    <t>Fórmula para calcular a quantidade necessária de neurônios na camada oculta</t>
+  </si>
+  <si>
+    <t>Neurônios = (Entradas + Saídas) / 2</t>
+  </si>
+  <si>
+    <t>Problemas linearmente separáveis não necessitam de camadas ocultas</t>
+  </si>
+  <si>
+    <t>Dicas</t>
+  </si>
+  <si>
+    <t>Cross validation (Buscar melhor parametrização)</t>
+  </si>
+  <si>
+    <t>Em geral, duas camadas funcionam bem para poucos dados</t>
+  </si>
+  <si>
+    <t>Pesquisas em deep learning mostram que mais camadas são essenciais para problemas mais complexos</t>
+  </si>
+  <si>
+    <t>Para os primeiros teste é interessante usar a função RELU na camada oculta, Sigmoid na camada de saída se houver 1 único neurônio ou Softmax se hourem mais neurônios na camada de saída. Essas são apenas sugestões para o início dos trabalhos.</t>
+  </si>
 </sst>
 </file>
 
@@ -158,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +241,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +284,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -337,12 +430,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -359,6 +482,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,20 +526,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="60% - Ênfase4" xfId="1" builtinId="44"/>
+    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto Explicativo" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6483,7 +6633,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="14" t="s">
@@ -6498,11 +6648,11 @@
       <c r="E2" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="30">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="30">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -6512,11 +6662,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="R2" s="23">
+      <c r="R2" s="17">
         <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
         <v>-8.0477851577559413E-5</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="19">
         <f>(E2*S27) + (R2*S28)</f>
         <v>-0.42402414335547328</v>
       </c>
@@ -6529,15 +6679,15 @@
       <c r="E3" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S3" s="14" t="s">
@@ -6563,7 +6713,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
-      <c r="R4" s="22">
+      <c r="R4" s="16">
         <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
         <v>-9.1160381916825437E-5</v>
       </c>
@@ -6573,7 +6723,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="28">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
@@ -6595,7 +6745,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6679,11 +6829,11 @@
       <c r="E9" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="30">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -6693,18 +6843,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="18">
+      <c r="L9" s="30">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.38100000000000001</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="30">
         <f>1/(1+EXP(-L9))</f>
         <v>0.40588573188433286</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="31">
         <v>0</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="32">
         <f>O9-M9</f>
         <v>-0.40588573188433286</v>
       </c>
@@ -6725,16 +6875,16 @@
       <c r="E10" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="21"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -6807,7 +6957,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="18">
+      <c r="M13" s="30">
         <f>M9*(1-M9)</f>
         <v>0.24114250453705233</v>
       </c>
@@ -6819,7 +6969,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="28">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
@@ -6833,7 +6983,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="30"/>
       <c r="R14" s="15">
         <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
         <v>2.2622101145935336E-3</v>
@@ -6844,7 +6994,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6901,11 +7051,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="20">
+      <c r="M17" s="32">
         <f>P9*M13</f>
         <v>-9.787630194244254E-2</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="34">
         <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
         <v>0.49880848923713045</v>
       </c>
@@ -6918,11 +7068,11 @@
       <c r="E18" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="30">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="30">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -6931,8 +7081,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="21"/>
-      <c r="R18" s="27"/>
+      <c r="M18" s="33"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -6942,8 +7092,8 @@
       <c r="E19" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -6998,11 +7148,11 @@
       <c r="E22" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="30">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="30">
         <f>1/(1+EXP(-F22))</f>
         <v>0.58855620438582912</v>
       </c>
@@ -7027,8 +7177,8 @@
       <c r="E23" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -7071,7 +7221,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="28">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
@@ -7101,7 +7251,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7177,11 +7327,11 @@
       <c r="E29" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="30">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.57699999999999996</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="30">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35962318536779009</v>
       </c>
@@ -7191,18 +7341,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="18">
+      <c r="L29" s="30">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.27419072229935881</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="30">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43187856951314224</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="31">
         <v>1</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="32">
         <f>O29-M29</f>
         <v>0.56812143048685781</v>
       </c>
@@ -7215,16 +7365,16 @@
       <c r="E30" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="21"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -7283,13 +7433,13 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="18">
+      <c r="M33" s="30">
         <f>M29*(1-M29)</f>
         <v>0.24535947070842423</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="28">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
@@ -7303,10 +7453,10 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="18"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7360,7 +7510,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="20">
+      <c r="M37" s="32">
         <f>P29*M33</f>
         <v>0.13939397348236826</v>
       </c>
@@ -7373,11 +7523,11 @@
       <c r="E38" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="30">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46899999999999997</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="30">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38485295749078957</v>
       </c>
@@ -7386,7 +7536,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="21"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -7396,8 +7546,8 @@
       <c r="E39" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7439,11 +7589,11 @@
       <c r="E42" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="30">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42399999999999999</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="30">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555998258063735</v>
       </c>
@@ -7462,8 +7612,8 @@
       <c r="E43" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -7492,7 +7642,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="28">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
@@ -7514,7 +7664,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7578,11 +7728,11 @@
       <c r="E49" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="30">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="30">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32300414376147701</v>
       </c>
@@ -7592,18 +7742,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="18">
+      <c r="L49" s="30">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.25421887269441767</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="30">
         <f>1/(1+EXP(-L49))</f>
         <v>0.43678536461116163</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="31">
         <v>1</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49" s="32">
         <f>O49-M49</f>
         <v>0.56321463538883831</v>
       </c>
@@ -7616,16 +7766,16 @@
       <c r="E50" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="21"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="33"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -7684,13 +7834,13 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="18">
+      <c r="M53" s="30">
         <f>M49*(1-M49)</f>
         <v>0.24600390987265619</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="28">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
@@ -7704,10 +7854,10 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7761,7 +7911,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="20">
+      <c r="M57" s="32">
         <f>P49*M53</f>
         <v>0.13855300240315671</v>
       </c>
@@ -7774,11 +7924,11 @@
       <c r="E58" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="30">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.96099999999999997</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="30">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27667802289494681</v>
       </c>
@@ -7787,7 +7937,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="21"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -7797,8 +7947,8 @@
       <c r="E59" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -7840,11 +7990,11 @@
       <c r="E62" s="1">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="30">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="30">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48350598689212332</v>
       </c>
@@ -7863,8 +8013,8 @@
       <c r="E63" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -7893,7 +8043,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="28">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
@@ -7915,7 +8065,7 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -7979,11 +8129,11 @@
       <c r="E69" s="1">
         <v>-0.74</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="30">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.3169999999999999</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="30">
         <f>1/(1+EXP(-F69))</f>
         <v>0.21131784831127748</v>
       </c>
@@ -7993,18 +8143,18 @@
         <v>-0.89300000000000002</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="18">
+      <c r="L69" s="30">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.16834783505262085</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="30">
         <f>1/(1+EXP(-L69))</f>
         <v>0.45801215918849292</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="31">
         <v>0</v>
       </c>
-      <c r="P69" s="20">
+      <c r="P69" s="32">
         <f>O69-M69</f>
         <v>-0.45801215918849292</v>
       </c>
@@ -8017,16 +8167,16 @@
       <c r="E70" s="1">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="21"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="33"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -8085,13 +8235,13 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="18">
+      <c r="M73" s="30">
         <f>M69*(1-M69)</f>
         <v>0.24823702122398755</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="A74" s="28">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
@@ -8105,10 +8255,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="18"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -8162,7 +8312,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="20">
+      <c r="M77" s="32">
         <f>P69*M73</f>
         <v>-0.11369557408131828</v>
       </c>
@@ -8175,11 +8325,11 @@
       <c r="E78" s="1">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="30">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.43</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="30">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19309868423321644</v>
       </c>
@@ -8188,7 +8338,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="21"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -8198,8 +8348,8 @@
       <c r="E79" s="11">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -8277,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C46162-8F88-4BF5-AC4A-247FF224E923}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8317,7 +8467,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="14" t="s">
@@ -8333,11 +8483,11 @@
         <f>step0!$S$2</f>
         <v>-0.42402414335547328</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="30">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="30">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -8347,11 +8497,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="R2" s="23">
+      <c r="R2" s="17">
         <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
         <v>-3.2023292064579527E-5</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="19">
         <f>(E2*S27) + (R2*S28)</f>
         <v>-0.42403375034309265</v>
       </c>
@@ -8365,15 +8515,15 @@
         <f>step0!$S$4</f>
         <v>0.35797265188542493</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S3" s="14" t="s">
@@ -8399,7 +8549,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
-      <c r="R4" s="22">
+      <c r="R4" s="16">
         <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
         <v>-3.6301205903105252E-5</v>
       </c>
@@ -8409,7 +8559,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="28">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
@@ -8431,7 +8581,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8517,11 +8667,11 @@
         <f>step0!$S$7</f>
         <v>-0.74304037703545189</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="30">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -8532,18 +8682,18 @@
         <v>-0.88642446691309551</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="18">
+      <c r="L9" s="30">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.36960852749142736</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="30">
         <f>1/(1+EXP(-L9))</f>
         <v>0.40863561851246799</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="31">
         <v>0</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="32">
         <f>O9-M9</f>
         <v>-0.40863561851246799</v>
       </c>
@@ -8565,16 +8715,16 @@
         <f>step0!$S$9</f>
         <v>-0.58052364658102906</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="21"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -8648,7 +8798,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="18">
+      <c r="M13" s="30">
         <f>M9*(1-M9)</f>
         <v>0.24165254979540071</v>
       </c>
@@ -8660,7 +8810,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="28">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
@@ -8674,7 +8824,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="30"/>
       <c r="R14" s="15">
         <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
         <v>2.3261815619461858E-3</v>
@@ -8685,7 +8835,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8742,11 +8892,11 @@
       <c r="J17" s="9"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="20">
+      <c r="M17" s="32">
         <f>P9*M13</f>
         <v>-9.8747839150758535E-2</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="34">
         <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
         <v>0.49880315314463519</v>
       </c>
@@ -8760,11 +8910,11 @@
         <f>step0!$S$12</f>
         <v>-0.96055541613048434</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="30">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="30">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -8773,8 +8923,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="21"/>
-      <c r="R18" s="27"/>
+      <c r="M18" s="33"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -8785,8 +8935,8 @@
         <f>step0!$S$14</f>
         <v>-0.46832133696562189</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="13"/>
@@ -8842,11 +8992,11 @@
         <f>step0!$S$2</f>
         <v>-0.42402414335547328</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="30">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.35797265188542493</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="30">
         <f>1/(1+EXP(-F22))</f>
         <v>0.5885495818105676</v>
       </c>
@@ -8872,8 +9022,8 @@
         <f>step0!$S$4</f>
         <v>0.35797265188542493</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
@@ -8916,7 +9066,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="28">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
@@ -8946,7 +9096,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9024,11 +9174,11 @@
         <f>step0!$S$7</f>
         <v>-0.74304037703545189</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="30">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.58052364658102906</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="30">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35881211149647002</v>
       </c>
@@ -9039,18 +9189,18 @@
         <v>-0.88642446691309551</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="18">
+      <c r="L29" s="30">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.26283195184300268</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="30">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43466767957787833</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="31">
         <v>1</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="32">
         <f>O29-M29</f>
         <v>0.56533232042212167</v>
       </c>
@@ -9064,16 +9214,16 @@
         <f>step0!$S$9</f>
         <v>-0.58052364658102906</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="21"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -9133,13 +9283,13 @@
       <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="18">
+      <c r="M33" s="30">
         <f>M29*(1-M29)</f>
         <v>0.24573168790826122</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="28">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
@@ -9153,10 +9303,10 @@
       <c r="J34" s="9"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="18"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -9210,7 +9360,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="20">
+      <c r="M37" s="32">
         <f>P29*M33</f>
         <v>0.13892006532642193</v>
       </c>
@@ -9224,11 +9374,11 @@
         <f>step0!$S$12</f>
         <v>-0.96055541613048434</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="30">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46832133696562189</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="30">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38501363751418871</v>
       </c>
@@ -9237,7 +9387,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="21"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -9248,8 +9398,8 @@
         <f>step0!$S$14</f>
         <v>-0.46832133696562189</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="13"/>
@@ -9292,11 +9442,11 @@
         <f>step0!$S$2</f>
         <v>-0.42402414335547328</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="30">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42402414335547328</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="30">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555421010521946</v>
       </c>
@@ -9316,8 +9466,8 @@
         <f>step0!$S$4</f>
         <v>0.35797265188542493</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="9"/>
@@ -9346,7 +9496,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="28">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
@@ -9368,7 +9518,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -9434,11 +9584,11 @@
         <f>step0!$S$7</f>
         <v>-0.74304037703545189</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="30">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74304037703545189</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="30">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32233965511080459</v>
       </c>
@@ -9449,18 +9599,18 @@
         <v>-0.88642446691309551</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="18">
+      <c r="L49" s="30">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.24583325199601103</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="30">
         <f>1/(1+EXP(-L49))</f>
         <v>0.43884934209700804</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="31">
         <v>1</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49" s="32">
         <f>O49-M49</f>
         <v>0.5611506579029919</v>
       </c>
@@ -9474,16 +9624,16 @@
         <f>step0!$S$9</f>
         <v>-0.58052364658102906</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="9"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="21"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="33"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -9543,13 +9693,13 @@
       <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="18">
+      <c r="M53" s="30">
         <f>M49*(1-M49)</f>
         <v>0.24626059703803121</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="28">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
@@ -9563,10 +9713,10 @@
       <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -9620,7 +9770,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="20">
+      <c r="M57" s="32">
         <f>P49*M53</f>
         <v>0.1381892960434748</v>
       </c>
@@ -9634,11 +9784,11 @@
         <f>step0!$S$12</f>
         <v>-0.96055541613048434</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="30">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.96055541613048434</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="30">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27676700509511304</v>
       </c>
@@ -9647,7 +9797,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="21"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -9658,8 +9808,8 @@
         <f>step0!$S$14</f>
         <v>-0.46832133696562189</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="13"/>
@@ -9702,11 +9852,11 @@
         <f>step0!$S$2</f>
         <v>-0.42402414335547328</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="30">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6051491470048351E-2</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="30">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48349312804391664</v>
       </c>
@@ -9726,8 +9876,8 @@
         <f>step0!$S$4</f>
         <v>0.35797265188542493</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="9"/>
@@ -9756,7 +9906,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="28">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
@@ -9778,7 +9928,7 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9844,11 +9994,11 @@
         <f>step0!$S$7</f>
         <v>-0.74304037703545189</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="30">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.323564023616481</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="30">
         <f>1/(1+EXP(-F69))</f>
         <v>0.21022594395654032</v>
       </c>
@@ -9859,18 +10009,18 @@
         <v>-0.88642446691309551</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="18">
+      <c r="L69" s="30">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.15996417053105691</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="30">
         <f>1/(1+EXP(-L69))</f>
         <v>0.46009401574095915</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="31">
         <v>0</v>
       </c>
-      <c r="P69" s="20">
+      <c r="P69" s="32">
         <f>O69-M69</f>
         <v>-0.46009401574095915</v>
       </c>
@@ -9884,16 +10034,16 @@
         <f>step0!$S$9</f>
         <v>-0.58052364658102906</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="9"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="21"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="33"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -9953,13 +10103,13 @@
       <c r="J73" s="9"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="18">
+      <c r="M73" s="30">
         <f>M69*(1-M69)</f>
         <v>0.24840751242031717</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="A74" s="28">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
@@ -9973,10 +10123,10 @@
       <c r="J74" s="9"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="18"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10030,7 +10180,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="20">
+      <c r="M77" s="32">
         <f>P69*M73</f>
         <v>-0.11429080992968592</v>
       </c>
@@ -10044,11 +10194,11 @@
         <f>step0!$S$12</f>
         <v>-0.96055541613048434</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="30">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.4288767530961062</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="30">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19327375944527808</v>
       </c>
@@ -10057,7 +10207,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="21"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -10068,8 +10218,8 @@
         <f>step0!$S$14</f>
         <v>-0.46832133696562189</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="13"/>
@@ -10103,27 +10253,27 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="M29:M30"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
@@ -10186,7 +10336,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="14" t="s">
@@ -10202,11 +10352,11 @@
         <f>step1!$S$2</f>
         <v>-0.42403375034309265</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="30">
         <f>(A5*E2)+(A14*E3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="30">
         <f>1/(1+EXP(-F2))</f>
         <v>0.5</v>
       </c>
@@ -10216,11 +10366,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="R2" s="23">
+      <c r="R2" s="17">
         <f>($A$5*$G$5)+($A$25*$G$25)+($A$45*$G$45)+($A$65*$G$65)</f>
         <v>1.0326082050734787E-5</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="19">
         <f>(E2*S27) + (R2*S28)</f>
         <v>-0.42403065251847744</v>
       </c>
@@ -10234,15 +10384,15 @@
         <f>step1!$S$4</f>
         <v>0.357961761523654</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S3" s="14" t="s">
@@ -10268,7 +10418,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
-      <c r="R4" s="22">
+      <c r="R4" s="16">
         <f>($A$14*$G$5)+($A$34*$G$25)+($A$54*$G$45)+($A$74*$G$65)</f>
         <v>1.1711554224451838E-5</v>
       </c>
@@ -10278,7 +10428,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="28">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
@@ -10300,7 +10450,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10386,11 +10536,11 @@
         <f>step1!$S$7</f>
         <v>-0.74602137220984965</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <f>(A5*E9)+(A14*E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="30">
         <f>1/(1+EXP(-F9))</f>
         <v>0.5</v>
       </c>
@@ -10401,18 +10551,18 @@
         <v>-0.88012768320791912</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="18">
+      <c r="L9" s="30">
         <f>(G2*J6)+(G9*J9)+(G18*J11)</f>
         <v>-0.35865128764641918</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="30">
         <f>1/(1+EXP(-L9))</f>
         <v>0.41128609033273167</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="31">
         <v>0</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="32">
         <f>O9-M9</f>
         <v>-0.41128609033273167</v>
       </c>
@@ -10434,16 +10584,16 @@
         <f>step1!$S$9</f>
         <v>-0.58397670350079212</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="21"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -10517,7 +10667,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="18">
+      <c r="M13" s="30">
         <f>M9*(1-M9)</f>
         <v>0.24212984223154776</v>
       </c>
@@ -10529,7 +10679,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="28">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
@@ -10543,7 +10693,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="30"/>
       <c r="R14" s="15">
         <f>($A$14*$G$16)+($A$34*$G$36)+($A$54*$G$56)+($A$74*$G$76)</f>
         <v>2.3846237171707171E-3</v>
@@ -10554,7 +10704,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -10611,11 +10761,11 @@
       <c r="J17" s="9"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="20">
+      <c r="M17" s="32">
         <f>P9*M13</f>
         <v>-9.9584636164294416E-2</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="34">
         <f>AVERAGE(ABS(P9),ABS(P29),ABS(P49),ABS(P69))</f>
         <v>0.49879784301301366</v>
       </c>
@@ -10629,11 +10779,11 @@
         <f>step1!$S$12</f>
         <v>-0.9600998060192153</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="30">
         <f>(A5*E18)+(A14*E19)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="30">
         <f>1/(1+EXP(-F18))</f>
         <v>0.5</v>
       </c>
@@ -10642,8 +10792,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="21"/>
-      <c r="R18" s="27"/>
+      <c r="M18" s="33"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -10654,8 +10804,8 @@
         <f>step1!$S$14</f>
         <v>-0.46762348249703806</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="13"/>
@@ -10711,11 +10861,11 @@
         <f>step1!$S$2</f>
         <v>-0.42403375034309265</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="30">
         <f>(A25*E22)+(A34*E23)</f>
         <v>0.357961761523654</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="30">
         <f>1/(1+EXP(-F22))</f>
         <v>0.58854694460921808</v>
       </c>
@@ -10741,8 +10891,8 @@
         <f>step1!$S$4</f>
         <v>0.357961761523654</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
@@ -10785,7 +10935,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="28">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
@@ -10815,7 +10965,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10893,11 +11043,11 @@
         <f>step1!$S$7</f>
         <v>-0.74602137220984965</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="30">
         <f>(A25*E29)+(A34*E30)</f>
         <v>-0.58397670350079212</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="30">
         <f>1/(1+EXP(-F29))</f>
         <v>0.35801806848037848</v>
       </c>
@@ -10908,18 +11058,18 @@
         <v>-0.88012768320791912</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="18">
+      <c r="L29" s="30">
         <f>(G22*J26)+(G29*J29)+(G38*J31)</f>
         <v>-0.25189308344415234</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="30">
         <f>1/(1+EXP(-L29))</f>
         <v>0.43735760173486149</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="31">
         <v>1</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="32">
         <f>O29-M29</f>
         <v>0.56264239826513851</v>
       </c>
@@ -10933,16 +11083,16 @@
         <f>step1!$S$9</f>
         <v>-0.58397670350079212</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="21"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -11002,13 +11152,13 @@
       <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="18">
+      <c r="M33" s="30">
         <f>M29*(1-M29)</f>
         <v>0.24607592993959176</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="28">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
@@ -11022,10 +11172,10 @@
       <c r="J34" s="9"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="18"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11079,7 +11229,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="20">
+      <c r="M37" s="32">
         <f>P29*M33</f>
         <v>0.13845275137653612</v>
       </c>
@@ -11093,11 +11243,11 @@
         <f>step1!$S$12</f>
         <v>-0.9600998060192153</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="30">
         <f>(A25*E38)+(A34*E39)</f>
         <v>-0.46762348249703806</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="30">
         <f>1/(1+EXP(-F38))</f>
         <v>0.38517888744833539</v>
       </c>
@@ -11106,7 +11256,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="21"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -11117,8 +11267,8 @@
         <f>step1!$S$14</f>
         <v>-0.46762348249703806</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="13"/>
@@ -11161,11 +11311,11 @@
         <f>step1!$S$2</f>
         <v>-0.42403375034309265</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="30">
         <f>(A45*E42)+(A54*E43)</f>
         <v>-0.42403375034309265</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="30">
         <f>1/(1+EXP(-F42))</f>
         <v>0.39555191316250787</v>
       </c>
@@ -11185,8 +11335,8 @@
         <f>step1!$S$4</f>
         <v>0.357961761523654</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="9"/>
@@ -11215,7 +11365,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="28">
         <v>1</v>
       </c>
       <c r="B45" s="1"/>
@@ -11237,7 +11387,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -11303,11 +11453,11 @@
         <f>step1!$S$7</f>
         <v>-0.74602137220984965</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="30">
         <f>(A45*E49)+(A54*E50)</f>
         <v>-0.74602137220984965</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="30">
         <f>1/(1+EXP(-F49))</f>
         <v>0.32168884121456626</v>
       </c>
@@ -11318,18 +11468,18 @@
         <v>-0.88012768320791912</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="18">
+      <c r="L49" s="30">
         <f>(G42*J46)+(G49*J49)+(G58*J51)</f>
         <v>-0.23776078960205149</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="30">
         <f>1/(1+EXP(-L49))</f>
         <v>0.44083824249883063</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="31">
         <v>1</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49" s="32">
         <f>O49-M49</f>
         <v>0.55916175750116937</v>
       </c>
@@ -11343,16 +11493,16 @@
         <f>step1!$S$9</f>
         <v>-0.58397670350079212</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="9"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="21"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="33"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -11412,13 +11562,13 @@
       <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="18">
+      <c r="M53" s="30">
         <f>M49*(1-M49)</f>
         <v>0.24649988644937282</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="28">
         <v>0</v>
       </c>
       <c r="B54" s="1"/>
@@ -11432,10 +11582,10 @@
       <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -11489,7 +11639,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="20">
+      <c r="M57" s="32">
         <f>P49*M53</f>
         <v>0.13783330973086999</v>
       </c>
@@ -11503,11 +11653,11 @@
         <f>step1!$S$12</f>
         <v>-0.9600998060192153</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="30">
         <f>(A45*E58)+(A54*E59)</f>
         <v>-0.9600998060192153</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="30">
         <f>1/(1+EXP(-F58))</f>
         <v>0.27685821249278947</v>
       </c>
@@ -11516,7 +11666,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="21"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -11527,8 +11677,8 @@
         <f>step1!$S$14</f>
         <v>-0.46762348249703806</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="13"/>
@@ -11571,11 +11721,11 @@
         <f>step1!$S$2</f>
         <v>-0.42403375034309265</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="30">
         <f>(A65*E62)+(A74*E63)</f>
         <v>-6.6071988819438654E-2</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="30">
         <f>1/(1+EXP(-F62))</f>
         <v>0.48348800929335378</v>
       </c>
@@ -11595,8 +11745,8 @@
         <f>step1!$S$4</f>
         <v>0.357961761523654</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="9"/>
@@ -11625,7 +11775,7 @@
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="28">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
@@ -11647,7 +11797,7 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -11713,11 +11863,11 @@
         <f>step1!$S$7</f>
         <v>-0.74602137220984965</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="30">
         <f>(A65*E69)+(A74*E70)</f>
         <v>-1.3299980757106418</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="30">
         <f>1/(1+EXP(-F69))</f>
         <v>0.20915968351326389</v>
       </c>
@@ -11728,18 +11878,18 @@
         <v>-0.88012768320791912</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="18">
+      <c r="L69" s="30">
         <f>(G62*J66)+(G69*J69)+(G78*J71)</f>
         <v>-0.15188682156486999</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="30">
         <f>1/(1+EXP(-L69))</f>
         <v>0.46210112595301511</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="31">
         <v>0</v>
       </c>
-      <c r="P69" s="20">
+      <c r="P69" s="32">
         <f>O69-M69</f>
         <v>-0.46210112595301511</v>
       </c>
@@ -11753,16 +11903,16 @@
         <f>step1!$S$9</f>
         <v>-0.58397670350079212</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="9"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="21"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="33"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -11822,13 +11972,13 @@
       <c r="J73" s="9"/>
       <c r="K73" s="1"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="18">
+      <c r="M73" s="30">
         <f>M69*(1-M69)</f>
         <v>0.24856367534597076</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="A74" s="28">
         <v>1</v>
       </c>
       <c r="B74" s="1"/>
@@ -11842,10 +11992,10 @@
       <c r="J74" s="9"/>
       <c r="K74" s="1"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="18"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -11899,7 +12049,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="1"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="20">
+      <c r="M77" s="32">
         <f>P69*M73</f>
         <v>-0.1148615542483928</v>
       </c>
@@ -11913,11 +12063,11 @@
         <f>step1!$S$12</f>
         <v>-0.9600998060192153</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="30">
         <f>(A65*E78)+(A74*E79)</f>
         <v>-1.4277232885162534</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="30">
         <f>1/(1+EXP(-F78))</f>
         <v>0.19345367013657808</v>
       </c>
@@ -11926,7 +12076,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="1"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="21"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -11937,8 +12087,8 @@
         <f>step1!$S$14</f>
         <v>-0.46762348249703806</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="13"/>
@@ -11948,39 +12098,42 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P69:P70"/>
     <mergeCell ref="M73:M74"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="M77:M78"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="L69:L70"/>
     <mergeCell ref="M69:M70"/>
+    <mergeCell ref="P69:P70"/>
     <mergeCell ref="O69:O70"/>
-    <mergeCell ref="M53:M54"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="O49:O50"/>
     <mergeCell ref="P49:P50"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="F38:F39"/>
@@ -11996,17 +12149,93 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1A009-8F3B-418C-9F44-26BCB9780F95}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="45" style="24" customWidth="1"/>
+    <col min="3" max="11" width="9.140625" style="25"/>
+    <col min="12" max="15" width="9.140625" style="21"/>
+    <col min="16" max="16" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>